--- a/dist/curvo_data_202508.xlsx
+++ b/dist/curvo_data_202508.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marco/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcolupia/Development/alphatrace/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C280A73-F7C7-7241-9424-5073AF11E8A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648CE720-9C3A-4B4A-9ADA-D0D1BFFE77A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="6720" windowWidth="25640" windowHeight="14440" xr2:uid="{542EB76F-CE11-5441-B930-CCC6D945A62F}"/>
+    <workbookView xWindow="1140" yWindow="6740" windowWidth="25640" windowHeight="14440" xr2:uid="{542EB76F-CE11-5441-B930-CCC6D945A62F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="576">
   <si>
     <t>Date</t>
   </si>
@@ -63,6 +63,1707 @@
   </si>
   <si>
     <t>MSCI World</t>
+  </si>
+  <si>
+    <t>S&amp;P 500</t>
+  </si>
+  <si>
+    <t>10067.640613024361</t>
+  </si>
+  <si>
+    <t>10269.780740213888</t>
+  </si>
+  <si>
+    <t>10122.864970710893</t>
+  </si>
+  <si>
+    <t>9602.987256402665</t>
+  </si>
+  <si>
+    <t>9491.321882692582</t>
+  </si>
+  <si>
+    <t>9920.291927926208</t>
+  </si>
+  <si>
+    <t>10930.112146862437</t>
+  </si>
+  <si>
+    <t>11057.097711728504</t>
+  </si>
+  <si>
+    <t>11367.305059451082</t>
+  </si>
+  <si>
+    <t>11809.294458555614</t>
+  </si>
+  <si>
+    <t>12117.829643162962</t>
+  </si>
+  <si>
+    <t>11422.597380087655</t>
+  </si>
+  <si>
+    <t>11757.08239924232</t>
+  </si>
+  <si>
+    <t>12135.607846862778</t>
+  </si>
+  <si>
+    <t>12599.43598874043</t>
+  </si>
+  <si>
+    <t>13177.410406297258</t>
+  </si>
+  <si>
+    <t>12556.483718152682</t>
+  </si>
+  <si>
+    <t>12966.668179471859</t>
+  </si>
+  <si>
+    <t>13187.99310195585</t>
+  </si>
+  <si>
+    <t>13341.53504260749</t>
+  </si>
+  <si>
+    <t>13982.159821309693</t>
+  </si>
+  <si>
+    <t>12691.652797918045</t>
+  </si>
+  <si>
+    <t>12891.672761664764</t>
+  </si>
+  <si>
+    <t>12821.613417789253</t>
+  </si>
+  <si>
+    <t>12304.236876536706</t>
+  </si>
+  <si>
+    <t>12316.604873200962</t>
+  </si>
+  <si>
+    <t>12836.31017355328</t>
+  </si>
+  <si>
+    <t>12388.229940679188</t>
+  </si>
+  <si>
+    <t>12424.473496473596</t>
+  </si>
+  <si>
+    <t>12150.00857940921</t>
+  </si>
+  <si>
+    <t>12582.415013111779</t>
+  </si>
+  <si>
+    <t>12644.893742612507</t>
+  </si>
+  <si>
+    <t>12993.880712335687</t>
+  </si>
+  <si>
+    <t>12857.48428695583</t>
+  </si>
+  <si>
+    <t>12982.853312539622</t>
+  </si>
+  <si>
+    <t>13710.366892566946</t>
+  </si>
+  <si>
+    <t>13911.774039246971</t>
+  </si>
+  <si>
+    <t>14206.113189136824</t>
+  </si>
+  <si>
+    <t>14673.019847872905</t>
+  </si>
+  <si>
+    <t>15488.442608809182</t>
+  </si>
+  <si>
+    <t>15193.003751486518</t>
+  </si>
+  <si>
+    <t>15894.22979652807</t>
+  </si>
+  <si>
+    <t>16456.94876457078</t>
+  </si>
+  <si>
+    <t>17223.68184932228</t>
+  </si>
+  <si>
+    <t>17483.252118797678</t>
+  </si>
+  <si>
+    <t>17640.287714165417</t>
+  </si>
+  <si>
+    <t>18052.988686777913</t>
+  </si>
+  <si>
+    <t>18743.208585179567</t>
+  </si>
+  <si>
+    <t>18668.803072469545</t>
+  </si>
+  <si>
+    <t>17572.862696743352</t>
+  </si>
+  <si>
+    <t>17780.882700210288</t>
+  </si>
+  <si>
+    <t>18944.463295734695</t>
+  </si>
+  <si>
+    <t>19527.520175964382</t>
+  </si>
+  <si>
+    <t>20733.968605105485</t>
+  </si>
+  <si>
+    <t>22671.04023865503</t>
+  </si>
+  <si>
+    <t>23844.209246047823</t>
+  </si>
+  <si>
+    <t>23129.892745287372</t>
+  </si>
+  <si>
+    <t>24644.072164033743</t>
+  </si>
+  <si>
+    <t>26064.431952580464</t>
+  </si>
+  <si>
+    <t>27538.11692278689</t>
+  </si>
+  <si>
+    <t>30556.423379582393</t>
+  </si>
+  <si>
+    <t>29667.345651145628</t>
+  </si>
+  <si>
+    <t>30471.42290547583</t>
+  </si>
+  <si>
+    <t>28919.151153973286</t>
+  </si>
+  <si>
+    <t>29635.186270727452</t>
+  </si>
+  <si>
+    <t>30957.447132087964</t>
+  </si>
+  <si>
+    <t>32019.795525622503</t>
+  </si>
+  <si>
+    <t>34253.596854553405</t>
+  </si>
+  <si>
+    <t>36140.37048391496</t>
+  </si>
+  <si>
+    <t>36256.759877504766</t>
+  </si>
+  <si>
+    <t>35090.85666363194</t>
+  </si>
+  <si>
+    <t>36781.39527653441</t>
+  </si>
+  <si>
+    <t>36475.82309109218</t>
+  </si>
+  <si>
+    <t>31075.010653770016</t>
+  </si>
+  <si>
+    <t>31523.098743026138</t>
+  </si>
+  <si>
+    <t>32828.01582744618</t>
+  </si>
+  <si>
+    <t>35825.13205856945</t>
+  </si>
+  <si>
+    <t>37647.83637751166</t>
+  </si>
+  <si>
+    <t>40503.79747793662</t>
+  </si>
+  <si>
+    <t>40548.64519376216</t>
+  </si>
+  <si>
+    <t>43254.45603859343</t>
+  </si>
+  <si>
+    <t>45544.28192582365</t>
+  </si>
+  <si>
+    <t>45068.479716740316</t>
+  </si>
+  <si>
+    <t>45058.68401518935</t>
+  </si>
+  <si>
+    <t>45348.87883647522</t>
+  </si>
+  <si>
+    <t>43725.21431450646</t>
+  </si>
+  <si>
+    <t>47435.09575610408</t>
+  </si>
+  <si>
+    <t>50105.83632133739</t>
+  </si>
+  <si>
+    <t>53326.22866810132</t>
+  </si>
+  <si>
+    <t>51966.05873946909</t>
+  </si>
+  <si>
+    <t>57364.30157278598</t>
+  </si>
+  <si>
+    <t>58504.586453145566</t>
+  </si>
+  <si>
+    <t>55961.415853050115</t>
+  </si>
+  <si>
+    <t>55822.91665074519</t>
+  </si>
+  <si>
+    <t>56810.97274556172</t>
+  </si>
+  <si>
+    <t>62622.98638003693</t>
+  </si>
+  <si>
+    <t>60271.12342589394</t>
+  </si>
+  <si>
+    <t>62497.69018405656</t>
+  </si>
+  <si>
+    <t>55800.329892595204</t>
+  </si>
+  <si>
+    <t>54257.826812403066</t>
+  </si>
+  <si>
+    <t>49550.44723592158</t>
+  </si>
+  <si>
+    <t>48597.43887988294</t>
+  </si>
+  <si>
+    <t>52114.34164476126</t>
+  </si>
+  <si>
+    <t>54913.45060687364</t>
+  </si>
+  <si>
+    <t>53576.93451420489</t>
+  </si>
+  <si>
+    <t>51383.197841663336</t>
+  </si>
+  <si>
+    <t>46046.94120833865</t>
+  </si>
+  <si>
+    <t>43689.083876813995</t>
+  </si>
+  <si>
+    <t>47801.58370330424</t>
+  </si>
+  <si>
+    <t>48685.43039070807</t>
+  </si>
+  <si>
+    <t>48952.563787732965</t>
+  </si>
+  <si>
+    <t>47930.80202261471</t>
+  </si>
+  <si>
+    <t>49317.29080225841</t>
+  </si>
+  <si>
+    <t>44866.704724781695</t>
+  </si>
+  <si>
+    <t>42738.01602758493</t>
+  </si>
+  <si>
+    <t>37353.963199114856</t>
+  </si>
+  <si>
+    <t>35118.00017480017</t>
+  </si>
+  <si>
+    <t>35168.81888420959</t>
+  </si>
+  <si>
+    <t>31260.851145893754</t>
+  </si>
+  <si>
+    <t>30092.762584412492</t>
+  </si>
+  <si>
+    <t>29734.721179181033</t>
+  </si>
+  <si>
+    <t>29712.01877670033</t>
+  </si>
+  <si>
+    <t>31477.568592699285</t>
+  </si>
+  <si>
+    <t>31199.21952164579</t>
+  </si>
+  <si>
+    <t>32689.452164639675</t>
+  </si>
+  <si>
+    <t>32906.48448411636</t>
+  </si>
+  <si>
+    <t>34857.75252587352</t>
+  </si>
+  <si>
+    <t>34073.79337908959</t>
+  </si>
+  <si>
+    <t>34054.96312638137</t>
+  </si>
+  <si>
+    <t>35762.360965954496</t>
+  </si>
+  <si>
+    <t>36036.72876253276</t>
+  </si>
+  <si>
+    <t>35779.54821204492</t>
+  </si>
+  <si>
+    <t>36604.31563658813</t>
+  </si>
+  <si>
+    <t>35733.84719008805</t>
+  </si>
+  <si>
+    <t>35665.09118452032</t>
+  </si>
+  <si>
+    <t>35185.59785756319</t>
+  </si>
+  <si>
+    <t>34803.20460244126</t>
+  </si>
+  <si>
+    <t>34691.58037743318</t>
+  </si>
+  <si>
+    <t>35013.53909496121</t>
+  </si>
+  <si>
+    <t>35695.78063745927</t>
+  </si>
+  <si>
+    <t>35836.63425760494</t>
+  </si>
+  <si>
+    <t>35997.64030669475</t>
+  </si>
+  <si>
+    <t>35334.00799078862</t>
+  </si>
+  <si>
+    <t>38309.13378905602</t>
+  </si>
+  <si>
+    <t>39121.76925726601</t>
+  </si>
+  <si>
+    <t>40573.29403006217</t>
+  </si>
+  <si>
+    <t>39857.03367604118</t>
+  </si>
+  <si>
+    <t>40700.36459084229</t>
+  </si>
+  <si>
+    <t>40085.10096429412</t>
+  </si>
+  <si>
+    <t>42499.05403968774</t>
+  </si>
+  <si>
+    <t>42412.94280776664</t>
+  </si>
+  <si>
+    <t>42382.686507133825</t>
+  </si>
+  <si>
+    <t>43367.33849599113</t>
+  </si>
+  <si>
+    <t>42147.13024399904</t>
+  </si>
+  <si>
+    <t>39881.14407726758</t>
+  </si>
+  <si>
+    <t>40422.10683249335</t>
+  </si>
+  <si>
+    <t>40499.425838835356</t>
+  </si>
+  <si>
+    <t>41192.00690684879</t>
+  </si>
+  <si>
+    <t>42891.01199974343</t>
+  </si>
+  <si>
+    <t>44163.07428539298</t>
+  </si>
+  <si>
+    <t>43284.58200000344</t>
+  </si>
+  <si>
+    <t>43991.74419908985</t>
+  </si>
+  <si>
+    <t>45401.684516480724</t>
+  </si>
+  <si>
+    <t>43647.72922721974</t>
+  </si>
+  <si>
+    <t>43781.32759303148</t>
+  </si>
+  <si>
+    <t>44756.14983862263</t>
+  </si>
+  <si>
+    <t>46841.24543424632</t>
+  </si>
+  <si>
+    <t>45885.70043928855</t>
+  </si>
+  <si>
+    <t>44470.94492113012</t>
+  </si>
+  <si>
+    <t>44591.84451960796</t>
+  </si>
+  <si>
+    <t>44460.79289900342</t>
+  </si>
+  <si>
+    <t>41695.802658955436</t>
+  </si>
+  <si>
+    <t>38637.59140019671</t>
+  </si>
+  <si>
+    <t>35003.557924308334</t>
+  </si>
+  <si>
+    <t>37350.863469322074</t>
+  </si>
+  <si>
+    <t>37912.726089604024</t>
+  </si>
+  <si>
+    <t>34152.75707528149</t>
+  </si>
+  <si>
+    <t>34197.57130100922</t>
+  </si>
+  <si>
+    <t>36754.69903194867</t>
+  </si>
+  <si>
+    <t>34490.77914007785</t>
+  </si>
+  <si>
+    <t>32176.016678467044</t>
+  </si>
+  <si>
+    <t>29937.63252394275</t>
+  </si>
+  <si>
+    <t>27669.058512370844</t>
+  </si>
+  <si>
+    <t>27513.586913296447</t>
+  </si>
+  <si>
+    <t>24918.440302419593</t>
+  </si>
+  <si>
+    <t>25749.01280723464</t>
+  </si>
+  <si>
+    <t>28283.563679200095</t>
+  </si>
+  <si>
+    <t>28122.048075638548</t>
+  </si>
+  <si>
+    <t>28106.109272677022</t>
+  </si>
+  <si>
+    <t>30223.317850870575</t>
+  </si>
+  <si>
+    <t>31020.47264920666</t>
+  </si>
+  <si>
+    <t>31362.81113699437</t>
+  </si>
+  <si>
+    <t>30453.688672134493</t>
+  </si>
+  <si>
+    <t>31801.20243830518</t>
+  </si>
+  <si>
+    <t>33803.79860101283</t>
+  </si>
+  <si>
+    <t>33614.46247457967</t>
+  </si>
+  <si>
+    <t>35667.01017282256</t>
+  </si>
+  <si>
+    <t>38074.736889437816</t>
+  </si>
+  <si>
+    <t>39152.166307088155</t>
+  </si>
+  <si>
+    <t>38976.52744228422</t>
+  </si>
+  <si>
+    <t>37044.520371560226</t>
+  </si>
+  <si>
+    <t>37336.580972215525</t>
+  </si>
+  <si>
+    <t>37898.86058130066</t>
+  </si>
+  <si>
+    <t>40408.58336054325</t>
+  </si>
+  <si>
+    <t>41934.80776964689</t>
+  </si>
+  <si>
+    <t>41894.03614267691</t>
+  </si>
+  <si>
+    <t>42884.52421057183</t>
+  </si>
+  <si>
+    <t>41775.20780700845</t>
+  </si>
+  <si>
+    <t>41122.249113876685</t>
+  </si>
+  <si>
+    <t>41999.27378152754</t>
+  </si>
+  <si>
+    <t>41104.87273701377</t>
+  </si>
+  <si>
+    <t>40814.09767802413</t>
+  </si>
+  <si>
+    <t>38089.40722571029</t>
+  </si>
+  <si>
+    <t>37895.38655103759</t>
+  </si>
+  <si>
+    <t>40541.83992800663</t>
+  </si>
+  <si>
+    <t>42209.923074060185</t>
+  </si>
+  <si>
+    <t>44220.273896058265</t>
+  </si>
+  <si>
+    <t>45370.90021675304</t>
+  </si>
+  <si>
+    <t>46392.71039037369</t>
+  </si>
+  <si>
+    <t>48231.54331393435</t>
+  </si>
+  <si>
+    <t>48443.99200394809</t>
+  </si>
+  <si>
+    <t>48509.69107375338</t>
+  </si>
+  <si>
+    <t>49758.20776691747</t>
+  </si>
+  <si>
+    <t>51705.99974411996</t>
+  </si>
+  <si>
+    <t>51499.67303123254</t>
+  </si>
+  <si>
+    <t>51527.16210283268</t>
+  </si>
+  <si>
+    <t>50649.65013096342</t>
+  </si>
+  <si>
+    <t>50305.528974354515</t>
+  </si>
+  <si>
+    <t>51521.01658473039</t>
+  </si>
+  <si>
+    <t>53894.961810709035</t>
+  </si>
+  <si>
+    <t>57331.01011694862</t>
+  </si>
+  <si>
+    <t>57242.02853436367</t>
+  </si>
+  <si>
+    <t>58878.19740277958</t>
+  </si>
+  <si>
+    <t>57758.94421380059</t>
+  </si>
+  <si>
+    <t>59806.48209966141</t>
+  </si>
+  <si>
+    <t>58249.925209722256</t>
+  </si>
+  <si>
+    <t>58875.457017134955</t>
+  </si>
+  <si>
+    <t>60967.83233183217</t>
+  </si>
+  <si>
+    <t>62964.23729032451</t>
+  </si>
+  <si>
+    <t>63715.72525354884</t>
+  </si>
+  <si>
+    <t>62764.24015938076</t>
+  </si>
+  <si>
+    <t>64224.18080002153</t>
+  </si>
+  <si>
+    <t>65068.30076013523</t>
+  </si>
+  <si>
+    <t>67785.15869094236</t>
+  </si>
+  <si>
+    <t>69393.94970425921</t>
+  </si>
+  <si>
+    <t>73215.38183992346</t>
+  </si>
+  <si>
+    <t>75659.57982293481</t>
+  </si>
+  <si>
+    <t>77872.68476363232</t>
+  </si>
+  <si>
+    <t>82281.83035112746</t>
+  </si>
+  <si>
+    <t>85713.74060605608</t>
+  </si>
+  <si>
+    <t>93733.56563875942</t>
+  </si>
+  <si>
+    <t>90785.14292758708</t>
+  </si>
+  <si>
+    <t>94006.14894401701</t>
+  </si>
+  <si>
+    <t>90381.92538660564</t>
+  </si>
+  <si>
+    <t>86507.22112462565</t>
+  </si>
+  <si>
+    <t>84457.09292036091</t>
+  </si>
+  <si>
+    <t>93127.60021443068</t>
+  </si>
+  <si>
+    <t>97271.68657359488</t>
+  </si>
+  <si>
+    <t>88145.46775061969</t>
+  </si>
+  <si>
+    <t>88285.25910265525</t>
+  </si>
+  <si>
+    <t>90158.85027076148</t>
+  </si>
+  <si>
+    <t>90365.61759920364</t>
+  </si>
+  <si>
+    <t>94041.86464365873</t>
+  </si>
+  <si>
+    <t>94727.26371003037</t>
+  </si>
+  <si>
+    <t>98122.44832841988</t>
+  </si>
+  <si>
+    <t>98092.57942580801</t>
+  </si>
+  <si>
+    <t>97958.06446732307</t>
+  </si>
+  <si>
+    <t>104556.63726649218</t>
+  </si>
+  <si>
+    <t>107574.05309080001</t>
+  </si>
+  <si>
+    <t>107433.2506890623</t>
+  </si>
+  <si>
+    <t>113364.64866406668</t>
+  </si>
+  <si>
+    <t>112498.78373369783</t>
+  </si>
+  <si>
+    <t>111168.99927821243</t>
+  </si>
+  <si>
+    <t>109809.85361581344</t>
+  </si>
+  <si>
+    <t>108645.9252986847</t>
+  </si>
+  <si>
+    <t>107901.62828036687</t>
+  </si>
+  <si>
+    <t>107335.05397738262</t>
+  </si>
+  <si>
+    <t>109725.4374920121</t>
+  </si>
+  <si>
+    <t>113906.76227661093</t>
+  </si>
+  <si>
+    <t>115309.63716797263</t>
+  </si>
+  <si>
+    <t>115191.7734755323</t>
+  </si>
+  <si>
+    <t>117250.59724179508</t>
+  </si>
+  <si>
+    <t>115175.98376271766</t>
+  </si>
+  <si>
+    <t>111274.0871209013</t>
+  </si>
+  <si>
+    <t>113938.96098767356</t>
+  </si>
+  <si>
+    <t>120472.88945259969</t>
+  </si>
+  <si>
+    <t>121640.63274996902</t>
+  </si>
+  <si>
+    <t>125328.92670893228</t>
+  </si>
+  <si>
+    <t>130356.7781939615</t>
+  </si>
+  <si>
+    <t>131948.15421865127</t>
+  </si>
+  <si>
+    <t>125731.73732401438</t>
+  </si>
+  <si>
+    <t>127830.83777741964</t>
+  </si>
+  <si>
+    <t>115364.79139345147</t>
+  </si>
+  <si>
+    <t>124197.35471944521</t>
+  </si>
+  <si>
+    <t>128993.59461161244</t>
+  </si>
+  <si>
+    <t>133618.6273061136</t>
+  </si>
+  <si>
+    <t>139239.43869351596</t>
+  </si>
+  <si>
+    <t>131174.49245773104</t>
+  </si>
+  <si>
+    <t>137593.57976994404</t>
+  </si>
+  <si>
+    <t>142437.50223542243</t>
+  </si>
+  <si>
+    <t>141641.8466415389</t>
+  </si>
+  <si>
+    <t>146239.98744519314</t>
+  </si>
+  <si>
+    <t>145857.73335791688</t>
+  </si>
+  <si>
+    <t>153519.5739702743</t>
+  </si>
+  <si>
+    <t>154605.55398945123</t>
+  </si>
+  <si>
+    <t>157089.91020089062</t>
+  </si>
+  <si>
+    <t>145143.4264082307</t>
+  </si>
+  <si>
+    <t>127460.09206037801</t>
+  </si>
+  <si>
+    <t>144857.45506297878</t>
+  </si>
+  <si>
+    <t>148213.47863941544</t>
+  </si>
+  <si>
+    <t>150324.24503725188</t>
+  </si>
+  <si>
+    <t>159637.00180717173</t>
+  </si>
+  <si>
+    <t>156614.33628777092</t>
+  </si>
+  <si>
+    <t>152579.8676496115</t>
+  </si>
+  <si>
+    <t>165297.0491800937</t>
+  </si>
+  <si>
+    <t>167581.83983784437</t>
+  </si>
+  <si>
+    <t>167735.2464011327</t>
+  </si>
+  <si>
+    <t>172573.76153343054</t>
+  </si>
+  <si>
+    <t>186215.49190584407</t>
+  </si>
+  <si>
+    <t>190357.6741665408</t>
+  </si>
+  <si>
+    <t>189817.58785578984</t>
+  </si>
+  <si>
+    <t>199430.45127707993</t>
+  </si>
+  <si>
+    <t>204047.60406369797</t>
+  </si>
+  <si>
+    <t>211264.50676924916</t>
+  </si>
+  <si>
+    <t>205874.93450898438</t>
+  </si>
+  <si>
+    <t>219050.23124671952</t>
+  </si>
+  <si>
+    <t>222931.0604849977</t>
+  </si>
+  <si>
+    <t>233682.94372520587</t>
+  </si>
+  <si>
+    <t>224967.2879732875</t>
+  </si>
+  <si>
+    <t>217393.35106870154</t>
+  </si>
+  <si>
+    <t>227455.58219174607</t>
+  </si>
+  <si>
+    <t>218671.88539007842</t>
+  </si>
+  <si>
+    <t>215535.21603835397</t>
+  </si>
+  <si>
+    <t>203950.42410264228</t>
+  </si>
+  <si>
+    <t>226883.90453305707</t>
+  </si>
+  <si>
+    <t>221940.37035095043</t>
+  </si>
+  <si>
+    <t>206708.83301550976</t>
+  </si>
+  <si>
+    <t>219702.89608303516</t>
+  </si>
+  <si>
+    <t>221651.79412058406</t>
+  </si>
+  <si>
+    <t>203202.08379100237</t>
+  </si>
+  <si>
+    <t>212640.77523455222</t>
+  </si>
+  <si>
+    <t>211633.08209762216</t>
+  </si>
+  <si>
+    <t>214238.2464260528</t>
+  </si>
+  <si>
+    <t>215481.94323618317</t>
+  </si>
+  <si>
+    <t>222455.55686589688</t>
+  </si>
+  <si>
+    <t>233160.38739900716</t>
+  </si>
+  <si>
+    <t>237222.9845262198</t>
+  </si>
+  <si>
+    <t>236775.55086954488</t>
+  </si>
+  <si>
+    <t>231318.43529727083</t>
+  </si>
+  <si>
+    <t>225921.39736823112</t>
+  </si>
+  <si>
+    <t>239516.55614766828</t>
+  </si>
+  <si>
+    <t>247701.34848824498</t>
+  </si>
+  <si>
+    <t>256814.10269384514</t>
+  </si>
+  <si>
+    <t>270801.7822068391</t>
+  </si>
+  <si>
+    <t>279902.5665041281</t>
+  </si>
+  <si>
+    <t>270799.4437820734</t>
+  </si>
+  <si>
+    <t>280717.45912530855</t>
+  </si>
+  <si>
+    <t>294783.1947701515</t>
+  </si>
+  <si>
+    <t>294982.11645338393</t>
+  </si>
+  <si>
+    <t>295079.1760101126</t>
+  </si>
+  <si>
+    <t>298447.0495512129</t>
+  </si>
+  <si>
+    <t>304274.32701249747</t>
+  </si>
+  <si>
+    <t>329378.5285170692</t>
+  </si>
+  <si>
+    <t>338420.5488647817</t>
+  </si>
+  <si>
+    <t>302887.1815190756</t>
+  </si>
+  <si>
+    <t>286073.22100085334</t>
+  </si>
+  <si>
+    <t>304991.9458080366</t>
+  </si>
+  <si>
+    <t>Nasdaq-100</t>
+  </si>
+  <si>
+    <t>10300.779819004563</t>
+  </si>
+  <si>
+    <t>10468.07718363035</t>
+  </si>
+  <si>
+    <t>10999.387840194588</t>
+  </si>
+  <si>
+    <t>10053.509312920913</t>
+  </si>
+  <si>
+    <t>10063.698597951678</t>
+  </si>
+  <si>
+    <t>8803.943561646622</t>
+  </si>
+  <si>
+    <t>8019.882066348303</t>
+  </si>
+  <si>
+    <t>8779.008119060274</t>
+  </si>
+  <si>
+    <t>9327.057974591677</t>
+  </si>
+  <si>
+    <t>8298.067451488543</t>
+  </si>
+  <si>
+    <t>8434.417210834446</t>
+  </si>
+  <si>
+    <t>9053.889678914531</t>
+  </si>
+  <si>
+    <t>7952.161191254918</t>
+  </si>
+  <si>
+    <t>7474.590001841879</t>
+  </si>
+  <si>
+    <t>6669.096922860284</t>
+  </si>
+  <si>
+    <t>6230.196153423168</t>
+  </si>
+  <si>
+    <t>6592.083427663298</t>
+  </si>
+  <si>
+    <t>6334.7485080545675</t>
+  </si>
+  <si>
+    <t>6658.912500922267</t>
+  </si>
+  <si>
+    <t>7515.841059627607</t>
+  </si>
+  <si>
+    <t>7290.480875403172</t>
+  </si>
+  <si>
+    <t>7481.918205732913</t>
+  </si>
+  <si>
+    <t>8112.337544374604</t>
+  </si>
+  <si>
+    <t>8150.6666676241375</t>
+  </si>
+  <si>
+    <t>8398.864735895564</t>
+  </si>
+  <si>
+    <t>8063.063418184023</t>
+  </si>
+  <si>
+    <t>8422.407674949452</t>
+  </si>
+  <si>
+    <t>9239.310305969922</t>
+  </si>
+  <si>
+    <t>8927.020746967568</t>
+  </si>
+  <si>
+    <t>9600.700823917961</t>
+  </si>
+  <si>
+    <t>10400.566941295741</t>
+  </si>
+  <si>
+    <t>10756.484297870336</t>
+  </si>
+  <si>
+    <t>10175.017957415701</t>
+  </si>
+  <si>
+    <t>10263.947089264424</t>
+  </si>
+  <si>
+    <t>10014.858037468359</t>
+  </si>
+  <si>
+    <t>10503.069282514783</t>
+  </si>
+  <si>
+    <t>10992.567922745451</t>
+  </si>
+  <si>
+    <t>11694.679828814002</t>
+  </si>
+  <si>
+    <t>11910.272456812492</t>
+  </si>
+  <si>
+    <t>11955.856198826616</t>
+  </si>
+  <si>
+    <t>12195.158744670602</t>
+  </si>
+  <si>
+    <t>11817.444673982534</t>
+  </si>
+  <si>
+    <t>11611.586254579575</t>
+  </si>
+  <si>
+    <t>11943.529523135212</t>
+  </si>
+  <si>
+    <t>11659.247105072864</t>
+  </si>
+  <si>
+    <t>12007.565199402316</t>
+  </si>
+  <si>
+    <t>11266.32362738077</t>
+  </si>
+  <si>
+    <t>11525.19763788954</t>
+  </si>
+  <si>
+    <t>12246.906678263782</t>
+  </si>
+  <si>
+    <t>12445.526810693666</t>
+  </si>
+  <si>
+    <t>12811.981504561249</t>
+  </si>
+  <si>
+    <t>13634.620775488089</t>
+  </si>
+  <si>
+    <t>14221.255818642541</t>
+  </si>
+  <si>
+    <t>15037.869402848706</t>
+  </si>
+  <si>
+    <t>15030.408387423908</t>
+  </si>
+  <si>
+    <t>14862.928691600806</t>
+  </si>
+  <si>
+    <t>15176.358888360874</t>
+  </si>
+  <si>
+    <t>15718.304404847493</t>
+  </si>
+  <si>
+    <t>16087.14025015857</t>
+  </si>
+  <si>
+    <t>15849.375630906763</t>
+  </si>
+  <si>
+    <t>14926.474778912305</t>
+  </si>
+  <si>
+    <t>15134.374619101396</t>
+  </si>
+  <si>
+    <t>14812.329990971491</t>
+  </si>
+  <si>
+    <t>14807.014221235164</t>
+  </si>
+  <si>
+    <t>15345.99727243389</t>
+  </si>
+  <si>
+    <t>16201.792404507387</t>
+  </si>
+  <si>
+    <t>16264.167736414018</t>
+  </si>
+  <si>
+    <t>16907.70795103199</t>
+  </si>
+  <si>
+    <t>16415.731255974835</t>
+  </si>
+  <si>
+    <t>17187.376597497696</t>
+  </si>
+  <si>
+    <t>17177.449074628355</t>
+  </si>
+  <si>
+    <t>17630.81325710402</t>
+  </si>
+  <si>
+    <t>18327.01924217853</t>
+  </si>
+  <si>
+    <t>19001.98700922882</t>
+  </si>
+  <si>
+    <t>19320.363348701965</t>
+  </si>
+  <si>
+    <t>19334.58526396497</t>
+  </si>
+  <si>
+    <t>19883.735689133464</t>
+  </si>
+  <si>
+    <t>19386.91337133753</t>
+  </si>
+  <si>
+    <t>19234.154851145635</t>
+  </si>
+  <si>
+    <t>20455.259187542015</t>
+  </si>
+  <si>
+    <t>21003.619980974305</t>
+  </si>
+  <si>
+    <t>21689.003943917527</t>
+  </si>
+  <si>
+    <t>23110.648780549847</t>
+  </si>
+  <si>
+    <t>24035.566853361976</t>
+  </si>
+  <si>
+    <t>24801.533881521565</t>
+  </si>
+  <si>
+    <t>25991.380717199885</t>
+  </si>
+  <si>
+    <t>26103.27978601828</t>
+  </si>
+  <si>
+    <t>29600.804589381758</t>
+  </si>
+  <si>
+    <t>30196.62922540858</t>
+  </si>
+  <si>
+    <t>29513.076690523318</t>
+  </si>
+  <si>
+    <t>29517.566191189722</t>
+  </si>
+  <si>
+    <t>31441.829641780627</t>
+  </si>
+  <si>
+    <t>28680.80958045534</t>
+  </si>
+  <si>
+    <t>28092.326737148178</t>
+  </si>
+  <si>
+    <t>31773.560471068264</t>
+  </si>
+  <si>
+    <t>33251.20885670911</t>
+  </si>
+  <si>
+    <t>31827.082127235273</t>
+  </si>
+  <si>
+    <t>29571.182703157752</t>
+  </si>
+  <si>
+    <t>29164.15004340694</t>
+  </si>
+  <si>
+    <t>29773.677004725323</t>
+  </si>
+  <si>
+    <t>28793.872832253277</t>
+  </si>
+  <si>
+    <t>30725.638388856507</t>
+  </si>
+  <si>
+    <t>30154.399824657557</t>
+  </si>
+  <si>
+    <t>32267.612444422026</t>
+  </si>
+  <si>
+    <t>32539.022900701442</t>
+  </si>
+  <si>
+    <t>33175.922070107765</t>
+  </si>
+  <si>
+    <t>33320.97878522819</t>
+  </si>
+  <si>
+    <t>34419.506876210304</t>
+  </si>
+  <si>
+    <t>35119.313517830014</t>
+  </si>
+  <si>
+    <t>36221.95221565622</t>
+  </si>
+  <si>
+    <t>38346.610200943476</t>
+  </si>
+  <si>
+    <t>38780.77542888598</t>
+  </si>
+  <si>
+    <t>38973.36370314715</t>
+  </si>
+  <si>
+    <t>39406.63527683766</t>
+  </si>
+  <si>
+    <t>38760.25528909031</t>
+  </si>
+  <si>
+    <t>38773.242535326484</t>
+  </si>
+  <si>
+    <t>41117.66339503071</t>
+  </si>
+  <si>
+    <t>41195.593641518644</t>
+  </si>
+  <si>
+    <t>40907.32087640783</t>
+  </si>
+  <si>
+    <t>42804.66394706923</t>
+  </si>
+  <si>
+    <t>43104.62705354029</t>
+  </si>
+  <si>
+    <t>41042.06383743718</t>
+  </si>
+  <si>
+    <t>42031.20945271678</t>
+  </si>
+  <si>
+    <t>45834.898567362565</t>
+  </si>
+  <si>
+    <t>47451.92678410158</t>
+  </si>
+  <si>
+    <t>50644.838157323225</t>
+  </si>
+  <si>
+    <t>50815.64802700989</t>
+  </si>
+  <si>
+    <t>47487.64812267339</t>
+  </si>
+  <si>
+    <t>47249.62398049148</t>
+  </si>
+  <si>
+    <t>42723.16678224948</t>
+  </si>
+  <si>
+    <t>46475.67876915794</t>
+  </si>
+  <si>
+    <t>50847.38624963264</t>
+  </si>
+  <si>
+    <t>53717.79706525039</t>
+  </si>
+  <si>
+    <t>49559.688609929355</t>
+  </si>
+  <si>
+    <t>52288.272833438015</t>
+  </si>
+  <si>
+    <t>54615.63562225127</t>
+  </si>
+  <si>
+    <t>54132.87922523576</t>
+  </si>
+  <si>
+    <t>56343.02407780483</t>
+  </si>
+  <si>
+    <t>59548.16093640771</t>
+  </si>
+  <si>
+    <t>60521.99020365107</t>
+  </si>
+  <si>
+    <t>60085.07455340269</t>
+  </si>
+  <si>
+    <t>55625.52307461668</t>
+  </si>
+  <si>
+    <t>64563.345068066716</t>
+  </si>
+  <si>
+    <t>67007.72999830158</t>
+  </si>
+  <si>
+    <t>70865.07085965425</t>
+  </si>
+  <si>
+    <t>79325.36293141141</t>
+  </si>
+  <si>
+    <t>76298.28073436495</t>
+  </si>
+  <si>
+    <t>73940.98393189648</t>
+  </si>
+  <si>
+    <t>80194.67244385969</t>
+  </si>
+  <si>
+    <t>82269.09280089808</t>
+  </si>
+  <si>
+    <t>83443.54849694237</t>
+  </si>
+  <si>
+    <t>83493.51110791152</t>
+  </si>
+  <si>
+    <t>87568.26577264786</t>
+  </si>
+  <si>
+    <t>88057.34019568295</t>
+  </si>
+  <si>
+    <t>96176.47941252163</t>
+  </si>
+  <si>
+    <t>98817.86394029183</t>
+  </si>
+  <si>
+    <t>103488.91500956302</t>
+  </si>
+  <si>
+    <t>107036.97444235739</t>
+  </si>
+  <si>
+    <t>111732.25037015298</t>
+  </si>
+  <si>
+    <t>113413.1347254372</t>
+  </si>
+  <si>
+    <t>105357.44420796928</t>
+  </si>
+  <si>
+    <t>100151.90281105025</t>
+  </si>
+  <si>
+    <t>105343.26357812183</t>
+  </si>
+  <si>
+    <t>96138.38159439104</t>
+  </si>
+  <si>
+    <t>93099.94525166639</t>
+  </si>
+  <si>
+    <t>87415.68216012219</t>
+  </si>
+  <si>
+    <t>100243.99034147157</t>
+  </si>
+  <si>
+    <t>88969.44500137528</t>
+  </si>
+  <si>
+    <t>90972.39505567252</t>
+  </si>
+  <si>
+    <t>91766.46046959641</t>
+  </si>
+  <si>
+    <t>81214.33228922839</t>
+  </si>
+  <si>
+    <t>88481.59989571496</t>
+  </si>
+  <si>
+    <t>89895.68382605864</t>
+  </si>
+  <si>
+    <t>96132.23906386989</t>
+  </si>
+  <si>
+    <t>95690.17370015626</t>
+  </si>
+  <si>
+    <t>105930.72935299185</t>
+  </si>
+  <si>
+    <t>110948.16685354685</t>
+  </si>
+  <si>
+    <t>113556.44368789453</t>
+  </si>
+  <si>
+    <t>113404.16601564026</t>
+  </si>
+  <si>
+    <t>110477.4984428846</t>
+  </si>
+  <si>
+    <t>107960.07583856054</t>
+  </si>
+  <si>
+    <t>116179.7208840139</t>
+  </si>
+  <si>
+    <t>121273.19672779038</t>
+  </si>
+  <si>
+    <t>125978.87960837162</t>
+  </si>
+  <si>
+    <t>132882.23566528363</t>
+  </si>
+  <si>
+    <t>134679.03161600675</t>
+  </si>
+  <si>
+    <t>129817.68829596967</t>
+  </si>
+  <si>
+    <t>136367.18446301966</t>
+  </si>
+  <si>
+    <t>146874.83432105882</t>
+  </si>
+  <si>
+    <t>142878.43170119677</t>
+  </si>
+  <si>
+    <t>141151.65168262913</t>
+  </si>
+  <si>
+    <t>143330.2640283848</t>
+  </si>
+  <si>
+    <t>146248.3227011704</t>
+  </si>
+  <si>
+    <t>158647.41750769247</t>
+  </si>
+  <si>
+    <t>161990.31681302804</t>
+  </si>
+  <si>
+    <t>165556.9416796999</t>
+  </si>
+  <si>
+    <t>160789.0765657553</t>
+  </si>
+  <si>
+    <t>138046.2793939893</t>
   </si>
 </sst>
 </file>
@@ -101,9 +1802,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,11 +2140,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B9E42B4-3F10-7144-8AEC-97E5E56B9CAC}">
-  <dimension ref="A1:I446"/>
+  <dimension ref="A1:K448"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A442" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J447" sqref="J447"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="165" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A433" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J445" sqref="J445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -450,7 +2152,7 @@
     <col min="1" max="1" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -478,8 +2180,14 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>32264</v>
       </c>
@@ -496,7 +2204,7 @@
         <v>53678.8922827356</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>32295</v>
       </c>
@@ -513,7 +2221,7 @@
         <v>54021.8749090118</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>32325</v>
       </c>
@@ -530,7 +2238,7 @@
         <v>53453.5698371545</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>32356</v>
       </c>
@@ -547,7 +2255,7 @@
         <v>55352.126301076598</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>32387</v>
       </c>
@@ -564,7 +2272,7 @@
         <v>59223.211243419399</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>32417</v>
       </c>
@@ -581,7 +2289,7 @@
         <v>57212.208770766098</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>32448</v>
       </c>
@@ -598,7 +2306,7 @@
         <v>59193.671461699603</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>32478</v>
       </c>
@@ -615,7 +2323,7 @@
         <v>61559.616524507401</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>32509</v>
       </c>
@@ -632,7 +2340,7 @@
         <v>61167.293042381702</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>32540</v>
       </c>
@@ -649,7 +2357,7 @@
         <v>61772.091040223902</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>32568</v>
       </c>
@@ -666,7 +2374,7 @@
         <v>66530.236510028699</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>32599</v>
       </c>
@@ -683,7 +2391,7 @@
         <v>66917.440020200695</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>32629</v>
       </c>
@@ -700,7 +2408,7 @@
         <v>66917.038515285603</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>32660</v>
       </c>
@@ -717,7 +2425,7 @@
         <v>68825.346729550205</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>32690</v>
       </c>
@@ -1006,7 +2714,7 @@
         <v>48953.840829208399</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>33208</v>
       </c>
@@ -1023,7 +2731,7 @@
         <v>51937.287757419203</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33239</v>
       </c>
@@ -1040,7 +2748,7 @@
         <v>50056.308445569099</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33270</v>
       </c>
@@ -1057,7 +2765,7 @@
         <v>51690.661555202598</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>33298</v>
       </c>
@@ -1074,7 +2782,7 @@
         <v>53696.038399755103</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>33329</v>
       </c>
@@ -1091,7 +2799,7 @@
         <v>57673.206652070701</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>33359</v>
       </c>
@@ -1108,7 +2816,7 @@
         <v>60905.157113833797</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>33390</v>
       </c>
@@ -1125,7 +2833,7 @@
         <v>64633.609098975197</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>33420</v>
       </c>
@@ -1142,7 +2850,7 @@
         <v>66962.4109913219</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>33451</v>
       </c>
@@ -1159,7 +2867,7 @@
         <v>65151.1265046927</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>33482</v>
       </c>
@@ -1176,7 +2884,7 @@
         <v>68295.937818705497</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>33512</v>
       </c>
@@ -1193,7 +2901,7 @@
         <v>66560.465105620606</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>33543</v>
       </c>
@@ -1210,7 +2918,7 @@
         <v>66401.343182361699</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>33573</v>
       </c>
@@ -1227,7 +2935,7 @@
         <v>67368.851983933506</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>33604</v>
       </c>
@@ -1244,7 +2952,7 @@
         <v>62003.580830322899</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>33635</v>
       </c>
@@ -1260,8 +2968,11 @@
       <c r="I47">
         <v>64385.653188017001</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J47">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>33664</v>
       </c>
@@ -1277,8 +2988,11 @@
       <c r="I48">
         <v>63619.827640513497</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J48" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>33695</v>
       </c>
@@ -1294,8 +3008,11 @@
       <c r="I49">
         <v>63883.084382090499</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J49" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>33725</v>
       </c>
@@ -1311,8 +3028,11 @@
       <c r="I50">
         <v>62480.973440792797</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J50" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>33756</v>
       </c>
@@ -1328,8 +3048,11 @@
       <c r="I51">
         <v>62760.410692048798</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J51">
+        <v>9686.8775264420601</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>33786</v>
       </c>
@@ -1345,8 +3068,11 @@
       <c r="I52">
         <v>63989.902897213004</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J52" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>33817</v>
       </c>
@@ -1362,8 +3088,11 @@
       <c r="I53">
         <v>60057.139063222799</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J53">
+        <v>9169.2552566548402</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>33848</v>
       </c>
@@ -1379,8 +3108,11 @@
       <c r="I54">
         <v>57327.541184017602</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J54" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>33878</v>
       </c>
@@ -1396,8 +3128,11 @@
       <c r="I55">
         <v>57222.521052475597</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J55" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>33909</v>
       </c>
@@ -1413,8 +3148,11 @@
       <c r="I56">
         <v>57988.969070797903</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J56" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>33939</v>
       </c>
@@ -1430,8 +3168,11 @@
       <c r="I57">
         <v>58745.713485907501</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J57" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>33970</v>
       </c>
@@ -1447,8 +3188,11 @@
       <c r="I58">
         <v>63694.450823454099</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J58" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>34001</v>
       </c>
@@ -1464,8 +3208,11 @@
       <c r="I59">
         <v>64147.674907806002</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J59" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>34029</v>
       </c>
@@ -1481,8 +3228,11 @@
       <c r="I60">
         <v>65599.619329890498</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J60" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>34060</v>
       </c>
@@ -1498,8 +3248,11 @@
       <c r="I61">
         <v>68806.645966499898</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J61" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>34090</v>
       </c>
@@ -1515,8 +3268,11 @@
       <c r="I62">
         <v>73133.882497915998</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J62" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>34121</v>
       </c>
@@ -1532,8 +3288,11 @@
       <c r="I63">
         <v>73900.182540792695</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J63" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>34151</v>
       </c>
@@ -1549,8 +3308,11 @@
       <c r="I64">
         <v>75770.086437800695</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J64" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>34182</v>
       </c>
@@ -1566,8 +3328,11 @@
       <c r="I65">
         <v>77307.020507650101</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J65" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>34213</v>
       </c>
@@ -1583,8 +3348,11 @@
       <c r="I66">
         <v>82225.094511029907</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J66" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>34243</v>
       </c>
@@ -1600,8 +3368,11 @@
       <c r="I67">
         <v>86630.801708103507</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J67" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>34274</v>
       </c>
@@ -1617,8 +3388,11 @@
       <c r="I68">
         <v>81629.716618467704</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J68" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>34304</v>
       </c>
@@ -1634,8 +3408,11 @@
       <c r="I69">
         <v>84843.959863885801</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J69" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>34335</v>
       </c>
@@ -1651,8 +3428,11 @@
       <c r="I70">
         <v>82173.801117568801</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J70" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>34366</v>
       </c>
@@ -1668,8 +3448,11 @@
       <c r="I71">
         <v>86136.480901418705</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J71">
+        <v>13550.3438992548</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>34394</v>
       </c>
@@ -1685,8 +3468,11 @@
       <c r="I72">
         <v>93042.300764924294</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J72" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>34425</v>
       </c>
@@ -1702,8 +3488,11 @@
       <c r="I73">
         <v>91464.510843243799</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J73" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>34455</v>
       </c>
@@ -1719,8 +3508,11 @@
       <c r="I74">
         <v>85691.768608205894</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J74" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>34486</v>
       </c>
@@ -1739,8 +3531,11 @@
       <c r="I75">
         <v>88576.738528594593</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J75" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>34516</v>
       </c>
@@ -1759,8 +3554,11 @@
       <c r="I76">
         <v>86876.361770967502</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J76" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>34547</v>
       </c>
@@ -1779,8 +3577,11 @@
       <c r="I77">
         <v>85208.770177692801</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J77" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>34578</v>
       </c>
@@ -1799,8 +3600,11 @@
       <c r="I78">
         <v>84133.7472197116</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J78" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>34608</v>
       </c>
@@ -1819,8 +3623,11 @@
       <c r="I79">
         <v>86747.828761966695</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J79" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>34639</v>
       </c>
@@ -1842,8 +3649,11 @@
       <c r="I80">
         <v>83544.418715710504</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J80" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>34669</v>
       </c>
@@ -1865,8 +3675,11 @@
       <c r="I81">
         <v>84259.970794916502</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J81" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>34700</v>
       </c>
@@ -1888,8 +3701,11 @@
       <c r="I82">
         <v>81785.199051198695</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J82" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>34731</v>
       </c>
@@ -1911,8 +3727,11 @@
       <c r="I83">
         <v>84246.468109845795</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J83" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>34759</v>
       </c>
@@ -1934,8 +3753,11 @@
       <c r="I84">
         <v>81266.123371838301</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J84" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>34790</v>
       </c>
@@ -1957,8 +3779,11 @@
       <c r="I85">
         <v>81528.843419697601</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J85" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>34820</v>
       </c>
@@ -1980,8 +3805,11 @@
       <c r="I86">
         <v>82118.770881473305</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J86" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>34851</v>
       </c>
@@ -2003,8 +3831,11 @@
       <c r="I87">
         <v>83336.135891652099</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J87" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>34881</v>
       </c>
@@ -2026,8 +3857,11 @@
       <c r="I88">
         <v>85328.472812984895</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J88" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>34912</v>
       </c>
@@ -2049,8 +3883,11 @@
       <c r="I89">
         <v>84571.502392434093</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J89" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>34943</v>
       </c>
@@ -2072,8 +3909,11 @@
       <c r="I90">
         <v>87752.240325443694</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J90" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>34973</v>
       </c>
@@ -2095,8 +3935,11 @@
       <c r="I91">
         <v>88375.5040820578</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J91" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>35004</v>
       </c>
@@ -2118,8 +3961,11 @@
       <c r="I92">
         <v>92097.034435305104</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J92" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>35034</v>
       </c>
@@ -2141,8 +3987,11 @@
       <c r="I93">
         <v>89217.370932410297</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J93" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>35065</v>
       </c>
@@ -2164,8 +4013,11 @@
       <c r="I94">
         <v>92495.146146652303</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J94" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>35096</v>
       </c>
@@ -2187,8 +4039,11 @@
       <c r="I95">
         <v>96687.249308332102</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J95" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>35125</v>
       </c>
@@ -2210,8 +4065,11 @@
       <c r="I96">
         <v>99611.205176960895</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J96" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>35156</v>
       </c>
@@ -2233,8 +4091,11 @@
       <c r="I97">
         <v>100773.132381904</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J97" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>35186</v>
       </c>
@@ -2256,8 +4117,11 @@
       <c r="I98">
         <v>102363.817083976</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J98" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>35217</v>
       </c>
@@ -2279,8 +4143,11 @@
       <c r="I99">
         <v>105642.964329697</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J99" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>35247</v>
       </c>
@@ -2302,8 +4169,11 @@
       <c r="I100">
         <v>106995.484505047</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J100" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>35278</v>
       </c>
@@ -2325,8 +4195,11 @@
       <c r="I101">
         <v>106681.286249768</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J101" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>35309</v>
       </c>
@@ -2348,8 +4221,11 @@
       <c r="I102">
         <v>101326.264253999</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J102" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>35339</v>
       </c>
@@ -2371,8 +4247,11 @@
       <c r="I103">
         <v>101540.894917838</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J103" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>35370</v>
       </c>
@@ -2394,8 +4273,11 @@
       <c r="I104">
         <v>106409.88365052499</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J104" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>35400</v>
       </c>
@@ -2417,8 +4299,11 @@
       <c r="I105">
         <v>107464.91084963099</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J105">
+        <v>20772.951105164098</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>35431</v>
       </c>
@@ -2440,8 +4325,11 @@
       <c r="I106">
         <v>112009.60295487101</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J106" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>35462</v>
       </c>
@@ -2463,8 +4351,11 @@
       <c r="I107">
         <v>112633.651528763</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J107" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>35490</v>
       </c>
@@ -2486,8 +4377,11 @@
       <c r="I108">
         <v>117069.825551071</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J108" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>35521</v>
       </c>
@@ -2509,8 +4403,11 @@
       <c r="I109">
         <v>123552.63828839699</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J109" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>35551</v>
       </c>
@@ -2532,8 +4429,11 @@
       <c r="I110">
         <v>122491.174550649</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J110" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>35582</v>
       </c>
@@ -2555,8 +4455,11 @@
       <c r="I111">
         <v>127159.80947712999</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J111" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>35612</v>
       </c>
@@ -2578,8 +4481,11 @@
       <c r="I112">
         <v>134572.05451778101</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J112" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>35643</v>
       </c>
@@ -2601,8 +4507,11 @@
       <c r="I113">
         <v>142847.83689100601</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J113" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>35674</v>
       </c>
@@ -2624,8 +4533,11 @@
       <c r="I114">
         <v>153560.51230524501</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J114" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>35704</v>
       </c>
@@ -2647,8 +4559,11 @@
       <c r="I115">
         <v>147350.23775778399</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J115" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>35735</v>
       </c>
@@ -2670,8 +4585,11 @@
       <c r="I116">
         <v>151256.61383903399</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J116" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>35765</v>
       </c>
@@ -2693,8 +4611,11 @@
       <c r="I117">
         <v>140670.86794401499</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J117" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>35796</v>
       </c>
@@ -2716,8 +4637,11 @@
       <c r="I118">
         <v>140190.50158933899</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J118" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>35827</v>
       </c>
@@ -2739,8 +4663,11 @@
       <c r="I119">
         <v>145703.51622969701</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J119" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>35855</v>
       </c>
@@ -2762,8 +4689,11 @@
       <c r="I120">
         <v>153183.990907025</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J120" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>35886</v>
       </c>
@@ -2785,8 +4715,11 @@
       <c r="I121">
         <v>163160.93670644</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J121" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>35916</v>
       </c>
@@ -2808,8 +4741,11 @@
       <c r="I122">
         <v>170652.246596115</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J122" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>35947</v>
       </c>
@@ -2831,8 +4767,11 @@
       <c r="I123">
         <v>171127.45656904101</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J123" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>35977</v>
       </c>
@@ -2854,8 +4793,11 @@
       <c r="I124">
         <v>166383.91926038699</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J124" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>36008</v>
       </c>
@@ -2877,8 +4819,11 @@
       <c r="I125">
         <v>171544.17313623501</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J125" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>36039</v>
       </c>
@@ -2900,8 +4845,11 @@
       <c r="I126">
         <v>171648.62106685099</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J126" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>36069</v>
       </c>
@@ -2923,8 +4871,11 @@
       <c r="I127">
         <v>148126.53873703399</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J127" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>36100</v>
       </c>
@@ -2949,8 +4900,11 @@
       <c r="I128">
         <v>143689.372331939</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J128" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>36130</v>
       </c>
@@ -2975,8 +4929,11 @@
       <c r="I129">
         <v>150867.18500687901</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J129" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>36161</v>
       </c>
@@ -3001,8 +4958,11 @@
       <c r="I130">
         <v>164439.90400391101</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J130" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>36192</v>
       </c>
@@ -3027,8 +4987,11 @@
       <c r="I131">
         <v>171348.442218913</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J131" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>36220</v>
       </c>
@@ -3053,8 +5016,11 @@
       <c r="I132">
         <v>180796.556794706</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J132" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>36251</v>
       </c>
@@ -3079,8 +5045,11 @@
       <c r="I133">
         <v>181806.60648649099</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J133" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>36281</v>
       </c>
@@ -3105,8 +5074,11 @@
       <c r="I134">
         <v>194214.83370828399</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J134" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>36312</v>
       </c>
@@ -3131,8 +5103,11 @@
       <c r="I135">
         <v>204605.64254084101</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J135">
+        <v>48159.215072663501</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>36342</v>
       </c>
@@ -3157,8 +5132,11 @@
       <c r="I136">
         <v>199759.49364810999</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J136" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>36373</v>
       </c>
@@ -3183,8 +5161,11 @@
       <c r="I137">
         <v>211639.39614297901</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J137" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>36404</v>
       </c>
@@ -3209,8 +5190,11 @@
       <c r="I138">
         <v>203755.344930274</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J138" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>36434</v>
       </c>
@@ -3235,8 +5219,11 @@
       <c r="I139">
         <v>205692.81389361099</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J139" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>36465</v>
       </c>
@@ -3261,8 +5248,11 @@
       <c r="I140">
         <v>201913.42143311701</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J140" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>36495</v>
       </c>
@@ -3287,8 +5277,11 @@
       <c r="I141">
         <v>216688.52871432199</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J141" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>36526</v>
       </c>
@@ -3313,8 +5306,11 @@
       <c r="I142">
         <v>230610.35476050599</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J142" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>36557</v>
       </c>
@@ -3339,8 +5335,11 @@
       <c r="I143">
         <v>250512.994182311</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J143">
+        <v>51386.4792620835</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>36586</v>
       </c>
@@ -3365,8 +5364,11 @@
       <c r="I144">
         <v>242288.28007737201</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J144" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>36617</v>
       </c>
@@ -3391,8 +5393,11 @@
       <c r="I145">
         <v>244838.15944074199</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J145" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>36647</v>
       </c>
@@ -3417,8 +5422,11 @@
       <c r="I146">
         <v>266141.69568613998</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J146" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>36678</v>
       </c>
@@ -3443,8 +5451,11 @@
       <c r="I147">
         <v>267986.722249855</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J147" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>36708</v>
       </c>
@@ -3469,8 +5480,11 @@
       <c r="I148">
         <v>255050.108276607</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J148" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>36739</v>
       </c>
@@ -3495,8 +5509,11 @@
       <c r="I149">
         <v>256627.43990774601</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J149" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>36770</v>
       </c>
@@ -3521,8 +5538,11 @@
       <c r="I150">
         <v>257817.00818750201</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J150" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>36800</v>
       </c>
@@ -3547,8 +5567,11 @@
       <c r="I151">
         <v>276243.31135921902</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J151" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>36831</v>
       </c>
@@ -3573,8 +5596,11 @@
       <c r="I152">
         <v>265729.31688001798</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J152" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>36861</v>
       </c>
@@ -3599,8 +5625,11 @@
       <c r="I153">
         <v>272045.58546595398</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J153">
+        <v>52331.192338071101</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>36892</v>
       </c>
@@ -3625,8 +5654,11 @@
       <c r="I154">
         <v>247639.255430119</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J154" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>36923</v>
       </c>
@@ -3651,8 +5683,11 @@
       <c r="I155">
         <v>234819.998498701</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J155" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>36951</v>
       </c>
@@ -3677,8 +5712,11 @@
       <c r="I156">
         <v>239650.89705787701</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J156" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>36982</v>
       </c>
@@ -3703,8 +5741,11 @@
       <c r="I157">
         <v>220438.452043945</v>
       </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J157" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>37012</v>
       </c>
@@ -3729,8 +5770,11 @@
       <c r="I158">
         <v>215621.61521839601</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J158" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>37043</v>
       </c>
@@ -3755,8 +5799,11 @@
       <c r="I159">
         <v>230368.32081145301</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J159" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>37073</v>
       </c>
@@ -3781,8 +5828,11 @@
       <c r="I160">
         <v>237984.00999649201</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J160" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>37104</v>
       </c>
@@ -3807,8 +5857,11 @@
       <c r="I161">
         <v>230494.193973947</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J161" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>37135</v>
       </c>
@@ -3833,8 +5886,11 @@
       <c r="I162">
         <v>220270.13823347201</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J162">
+        <v>42453.697174198802</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>37165</v>
       </c>
@@ -3859,8 +5915,11 @@
       <c r="I163">
         <v>200438.547406495</v>
       </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J163" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>37196</v>
       </c>
@@ -3885,8 +5944,11 @@
       <c r="I164">
         <v>183290.37078367901</v>
       </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J164" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>37226</v>
       </c>
@@ -3911,8 +5973,11 @@
       <c r="I165">
         <v>188628.88057849399</v>
       </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J165" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>37257</v>
       </c>
@@ -3937,8 +6002,11 @@
       <c r="I166">
         <v>202992.321617512</v>
       </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J166" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>37288</v>
       </c>
@@ -3963,8 +6031,11 @@
       <c r="I167">
         <v>206217.79621333501</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J167" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>37316</v>
       </c>
@@ -3989,8 +6060,11 @@
       <c r="I168">
         <v>204023.791028826</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J168" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>37347</v>
       </c>
@@ -4015,8 +6089,11 @@
       <c r="I169">
         <v>201902.08766946601</v>
       </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J169" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>37377</v>
       </c>
@@ -4041,8 +6118,11 @@
       <c r="I170">
         <v>209031.99110487101</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J170" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>37408</v>
       </c>
@@ -4067,8 +6147,11 @@
       <c r="I171">
         <v>195560.78373383201</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J171" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>37438</v>
       </c>
@@ -4093,8 +6176,11 @@
       <c r="I172">
         <v>187977.92151641299</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J172" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>37469</v>
       </c>
@@ -4119,8 +6205,11 @@
       <c r="I173">
         <v>166133.49618426</v>
       </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J173" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>37500</v>
       </c>
@@ -4145,8 +6234,11 @@
       <c r="I174">
         <v>155100.92639628399</v>
       </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J174" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>37530</v>
       </c>
@@ -4171,8 +6263,11 @@
       <c r="I175">
         <v>154575.765443941</v>
       </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J175">
+        <v>33998.527672081203</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>37561</v>
       </c>
@@ -4197,8 +6292,11 @@
       <c r="I176">
         <v>137180.246016858</v>
       </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J176">
+        <v>35771.186081439402</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>37591</v>
       </c>
@@ -4223,8 +6321,11 @@
       <c r="I177">
         <v>147228.51592214999</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J177">
+        <v>31871.7564331781</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>37622</v>
       </c>
@@ -4252,8 +6353,11 @@
       <c r="I178">
         <v>154159.50777591599</v>
       </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J178" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>37653</v>
       </c>
@@ -4281,8 +6385,11 @@
       <c r="I179">
         <v>138837.42258378299</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J179" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>37681</v>
       </c>
@@ -4310,8 +6417,11 @@
       <c r="I180">
         <v>130512.02798075401</v>
       </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J180" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>37712</v>
       </c>
@@ -4339,8 +6449,11 @@
       <c r="I181">
         <v>128632.228279519</v>
       </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J181" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>37742</v>
       </c>
@@ -4368,8 +6481,11 @@
       <c r="I182">
         <v>126877.899421676</v>
       </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J182" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>37773</v>
       </c>
@@ -4397,8 +6513,11 @@
       <c r="I183">
         <v>135193.15131186001</v>
       </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J183" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>37803</v>
       </c>
@@ -4426,8 +6545,11 @@
       <c r="I184">
         <v>134538.24963147199</v>
       </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J184">
+        <v>33586.183615988899</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>37834</v>
       </c>
@@ -4455,8 +6577,11 @@
       <c r="I185">
         <v>141580.25720835899</v>
       </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J185">
+        <v>35466.4482883288</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>37865</v>
       </c>
@@ -4484,8 +6609,11 @@
       <c r="I186">
         <v>145829.80710089699</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J186" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>37895</v>
       </c>
@@ -4513,8 +6641,11 @@
       <c r="I187">
         <v>154292.87047870399</v>
       </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J187" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>37926</v>
       </c>
@@ -4542,8 +6673,11 @@
       <c r="I188">
         <v>145563.41564566901</v>
       </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J188" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>37956</v>
       </c>
@@ -4571,8 +6705,11 @@
       <c r="I189">
         <v>154584.90479503901</v>
       </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J189" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>37987</v>
       </c>
@@ -4600,8 +6737,11 @@
       <c r="I190">
         <v>152054.36205555301</v>
       </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J190">
+        <v>35368.937186802097</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>38018</v>
       </c>
@@ -4629,8 +6769,11 @@
       <c r="I191">
         <v>153445.468004536</v>
       </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J191" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>38047</v>
       </c>
@@ -4658,8 +6801,11 @@
       <c r="I192">
         <v>159004.638114564</v>
       </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J192">
+        <v>35781.842919726398</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>38078</v>
       </c>
@@ -4687,8 +6833,11 @@
       <c r="I193">
         <v>161224.575293578</v>
       </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J193" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>38108</v>
       </c>
@@ -4716,8 +6865,11 @@
       <c r="I194">
         <v>162696.47419695</v>
       </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J194" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>38139</v>
       </c>
@@ -4745,8 +6897,11 @@
       <c r="I195">
         <v>163059.18826933499</v>
       </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J195" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>38169</v>
       </c>
@@ -4774,8 +6929,11 @@
       <c r="I196">
         <v>161158.959092012</v>
       </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J196" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>38200</v>
       </c>
@@ -4803,8 +6961,11 @@
       <c r="I197">
         <v>165049.187160345</v>
       </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J197" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>38231</v>
       </c>
@@ -4832,8 +6993,11 @@
       <c r="I198">
         <v>161198.73073141699</v>
       </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J198" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>38261</v>
       </c>
@@ -4861,8 +7025,11 @@
       <c r="I199">
         <v>160944.69461268201</v>
       </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J199" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>38292</v>
       </c>
@@ -4890,8 +7057,11 @@
       <c r="I200">
         <v>160051.19636438999</v>
       </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J200" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>38322</v>
       </c>
@@ -4919,8 +7089,11 @@
       <c r="I201">
         <v>159745.26147159201</v>
       </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J201" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>38353</v>
       </c>
@@ -4948,8 +7121,11 @@
       <c r="I202">
         <v>161080.062169905</v>
       </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J202" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>38384</v>
       </c>
@@ -4977,8 +7153,11 @@
       <c r="I203">
         <v>163226.59221661399</v>
       </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J203" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>38412</v>
       </c>
@@ -5006,8 +7185,11 @@
       <c r="I204">
         <v>166724.43460941801</v>
       </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J204" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>38443</v>
       </c>
@@ -5035,8 +7217,11 @@
       <c r="I205">
         <v>169125.546040549</v>
       </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J205" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>38473</v>
       </c>
@@ -5064,8 +7249,11 @@
       <c r="I206">
         <v>169590.791239846</v>
       </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J206" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>38504</v>
       </c>
@@ -5093,8 +7281,11 @@
       <c r="I207">
         <v>165985.15817405799</v>
       </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J207" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>38534</v>
       </c>
@@ -5122,8 +7313,11 @@
       <c r="I208">
         <v>177510.46337936801</v>
       </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J208" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>38565</v>
       </c>
@@ -5151,8 +7345,11 @@
       <c r="I209">
         <v>182585.29855443299</v>
       </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J209" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>38596</v>
       </c>
@@ -5180,8 +7377,11 @@
       <c r="I210">
         <v>188947.67694748801</v>
       </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J210" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>38626</v>
       </c>
@@ -5209,8 +7409,11 @@
       <c r="I211">
         <v>188732.71971307599</v>
       </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J211" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>38657</v>
       </c>
@@ -5238,8 +7441,11 @@
       <c r="I212">
         <v>196143.27275536201</v>
       </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J212" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>38687</v>
       </c>
@@ -5267,8 +7473,11 @@
       <c r="I213">
         <v>191687.066451716</v>
       </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J213" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>38718</v>
       </c>
@@ -5296,8 +7505,11 @@
       <c r="I214">
         <v>202348.84286781799</v>
       </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J214" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>38749</v>
       </c>
@@ -5325,8 +7537,11 @@
       <c r="I215">
         <v>206340.89233732899</v>
       </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J215" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>38777</v>
       </c>
@@ -5354,8 +7569,11 @@
       <c r="I216">
         <v>209844.751617859</v>
       </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J216">
+        <v>43076.461622562398</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>38808</v>
       </c>
@@ -5383,8 +7601,11 @@
       <c r="I217">
         <v>213820.042322764</v>
       </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J217" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>38838</v>
       </c>
@@ -5412,8 +7633,11 @@
       <c r="I218">
         <v>214387.43005597501</v>
       </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J218" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>38869</v>
       </c>
@@ -5441,8 +7665,11 @@
       <c r="I219">
         <v>213267.13908940999</v>
       </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J219" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>38899</v>
       </c>
@@ -5470,8 +7697,11 @@
       <c r="I220">
         <v>200683.726588733</v>
       </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J220" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>38930</v>
       </c>
@@ -5499,8 +7729,11 @@
       <c r="I221">
         <v>203070.95526149101</v>
       </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J221" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>38961</v>
       </c>
@@ -5528,8 +7761,11 @@
       <c r="I222">
         <v>203474.00851319201</v>
       </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J222" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>38991</v>
       </c>
@@ -5557,8 +7793,11 @@
       <c r="I223">
         <v>207391.08851788999</v>
       </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J223" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>39022</v>
       </c>
@@ -5586,8 +7825,11 @@
       <c r="I224">
         <v>213030.14670468599</v>
       </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J224" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>39052</v>
       </c>
@@ -5615,8 +7857,11 @@
       <c r="I225">
         <v>220222.71159759199</v>
       </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J225" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>39083</v>
       </c>
@@ -5644,8 +7889,11 @@
       <c r="I226">
         <v>217001.143342483</v>
       </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J226" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>39114</v>
       </c>
@@ -5673,8 +7921,11 @@
       <c r="I227">
         <v>221917.35707023699</v>
       </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J227" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>39142</v>
       </c>
@@ -5702,8 +7953,11 @@
       <c r="I228">
         <v>228281.15957962599</v>
       </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J228" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>39173</v>
       </c>
@@ -5731,8 +7985,11 @@
       <c r="I229">
         <v>222675.51970863799</v>
       </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J229" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>39203</v>
       </c>
@@ -5760,8 +8017,11 @@
       <c r="I230">
         <v>224929.89195155399</v>
       </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J230" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>39234</v>
       </c>
@@ -5789,8 +8049,11 @@
       <c r="I231">
         <v>229895.50613903999</v>
       </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J231" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>39264</v>
       </c>
@@ -5818,8 +8081,14 @@
       <c r="I232">
         <v>239007.354577944</v>
       </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J232">
+        <v>43807.769779902199</v>
+      </c>
+      <c r="K232">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>39295</v>
       </c>
@@ -5847,8 +8116,14 @@
       <c r="I233">
         <v>236250.632464186</v>
       </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J233" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="K233" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>39326</v>
       </c>
@@ -5876,8 +8151,14 @@
       <c r="I234">
         <v>227613.98401736701</v>
       </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J234" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="K234" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>39356</v>
       </c>
@@ -5905,8 +8186,14 @@
       <c r="I235">
         <v>227474.542020177</v>
       </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J235" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="K235" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>39387</v>
       </c>
@@ -5934,8 +8221,14 @@
       <c r="I236">
         <v>230326.108436512</v>
       </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J236" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="K236" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>39417</v>
       </c>
@@ -5963,8 +8256,14 @@
       <c r="I237">
         <v>232986.859849698</v>
       </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J237">
+        <v>41519.034855842299</v>
+      </c>
+      <c r="K237" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>39448</v>
       </c>
@@ -5992,8 +8291,14 @@
       <c r="I238">
         <v>218709.790257563</v>
       </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J238" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="K238" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>39479</v>
       </c>
@@ -6021,8 +8326,14 @@
       <c r="I239">
         <v>216474.73922129301</v>
       </c>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J239">
+        <v>36650.396266233904</v>
+      </c>
+      <c r="K239">
+        <v>8188.3007668832297</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>39508</v>
       </c>
@@ -6050,8 +8361,14 @@
       <c r="I240">
         <v>197928.522288562</v>
       </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J240" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="K240" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>39539</v>
       </c>
@@ -6079,8 +8396,14 @@
       <c r="I241">
         <v>192929.54215943799</v>
       </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J241" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="K241" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>39569</v>
       </c>
@@ -6108,8 +8431,14 @@
       <c r="I242">
         <v>183285.78465006899</v>
       </c>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J242" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="K242" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>39600</v>
       </c>
@@ -6137,8 +8466,14 @@
       <c r="I243">
         <v>196295.584093023</v>
       </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J243" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="K243" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>39630</v>
       </c>
@@ -6166,8 +8501,14 @@
       <c r="I244">
         <v>199699.98647548299</v>
       </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J244" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K244" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>39661</v>
       </c>
@@ -6195,8 +8536,14 @@
       <c r="I245">
         <v>180788.14015367901</v>
       </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J245" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="K245" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>39692</v>
       </c>
@@ -6224,8 +8571,14 @@
       <c r="I246">
         <v>178099.26392086199</v>
       </c>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J246" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="K246" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>39722</v>
       </c>
@@ -6253,8 +8606,14 @@
       <c r="I247">
         <v>186036.88089184399</v>
       </c>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J247" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K247" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>39753</v>
       </c>
@@ -6282,8 +8641,14 @@
       <c r="I248">
         <v>168860.68747794401</v>
       </c>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J248" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="K248" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>39783</v>
       </c>
@@ -6311,8 +8676,14 @@
       <c r="I249">
         <v>153428.49461673599</v>
       </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J249" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="K249" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>39814</v>
       </c>
@@ -6340,8 +8711,14 @@
       <c r="I250">
         <v>143835.52119359799</v>
       </c>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J250" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="K250" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>39845</v>
       </c>
@@ -6369,8 +8746,14 @@
       <c r="I251">
         <v>135756.74134553599</v>
       </c>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J251" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="K251" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>39873</v>
       </c>
@@ -6398,8 +8781,14 @@
       <c r="I252">
         <v>134504.58639078701</v>
       </c>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J252" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="K252" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>39904</v>
       </c>
@@ -6427,8 +8816,14 @@
       <c r="I253">
         <v>122379.23275141</v>
       </c>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J253" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="K253" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>39934</v>
       </c>
@@ -6456,8 +8851,14 @@
       <c r="I254">
         <v>125041.15590260101</v>
       </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J254" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="K254" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>39965</v>
       </c>
@@ -6485,8 +8886,14 @@
       <c r="I255">
         <v>139413.89690350901</v>
       </c>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J255" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="K255" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>39995</v>
       </c>
@@ -6514,8 +8921,14 @@
       <c r="I256">
         <v>143169.64672565399</v>
       </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J256" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="K256" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>40026</v>
       </c>
@@ -6543,8 +8956,14 @@
       <c r="I257">
         <v>142160.733223883</v>
       </c>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J257" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="K257" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>40057</v>
       </c>
@@ -6572,8 +8991,14 @@
       <c r="I258">
         <v>154157.688486901</v>
       </c>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J258" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="K258" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>40087</v>
       </c>
@@ -6601,8 +9026,14 @@
       <c r="I259">
         <v>159010.34673270999</v>
       </c>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J259" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="K259" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>40118</v>
       </c>
@@ -6630,8 +9061,14 @@
       <c r="I260">
         <v>161158.923980611</v>
       </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J260" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="K260" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>40148</v>
       </c>
@@ -6659,8 +9096,14 @@
       <c r="I261">
         <v>156612.55217144301</v>
       </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J261" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="K261" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>40179</v>
       </c>
@@ -6688,8 +9131,14 @@
       <c r="I262">
         <v>160592.44059568801</v>
       </c>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J262" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="K262" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>40210</v>
       </c>
@@ -6717,8 +9166,14 @@
       <c r="I263">
         <v>170477.80059489401</v>
       </c>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J263" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="K263" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>40238</v>
       </c>
@@ -6746,8 +9201,14 @@
       <c r="I264">
         <v>168580.709752583</v>
       </c>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J264" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="K264" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>40269</v>
       </c>
@@ -6775,8 +9236,14 @@
       <c r="I265">
         <v>175946.02834225801</v>
       </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J265" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="K265" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>40299</v>
       </c>
@@ -6804,8 +9271,14 @@
       <c r="I266">
         <v>188103.867576057</v>
       </c>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J266" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="K266">
+        <v>10793.2668795967</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>40330</v>
       </c>
@@ -6833,8 +9306,14 @@
       <c r="I267">
         <v>190447.44751449401</v>
       </c>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J267" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="K267" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>40360</v>
       </c>
@@ -6862,8 +9341,14 @@
       <c r="I268">
         <v>186309.20593194201</v>
       </c>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J268" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="K268" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>40391</v>
       </c>
@@ -6891,8 +9376,14 @@
       <c r="I269">
         <v>180449.20951772699</v>
       </c>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J269">
+        <v>36629.6468728334</v>
+      </c>
+      <c r="K269" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>40422</v>
       </c>
@@ -6920,8 +9411,14 @@
       <c r="I270">
         <v>183743.59898204001</v>
       </c>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J270">
+        <v>37068.6788467851</v>
+      </c>
+      <c r="K270" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>40452</v>
       </c>
@@ -6949,8 +9446,14 @@
       <c r="I271">
         <v>181738.04445474001</v>
       </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J271" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="K271" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>40483</v>
       </c>
@@ -6978,8 +9481,14 @@
       <c r="I272">
         <v>184592.43709368899</v>
       </c>
-    </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J272" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="K272" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>40513</v>
       </c>
@@ -7007,8 +9516,14 @@
       <c r="I273">
         <v>188585.306741482</v>
       </c>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J273" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="K273" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>40544</v>
       </c>
@@ -7036,8 +9551,14 @@
       <c r="I274">
         <v>196707.823038601</v>
       </c>
-    </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J274" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="K274" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>40575</v>
       </c>
@@ -7065,8 +9586,14 @@
       <c r="I275">
         <v>205418.235966932</v>
       </c>
-    </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J275" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="K275" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>40603</v>
       </c>
@@ -7094,8 +9621,14 @@
       <c r="I276">
         <v>204996.22919058401</v>
       </c>
-    </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J276" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="K276" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>40634</v>
       </c>
@@ -7123,8 +9656,14 @@
       <c r="I277">
         <v>209995.86482893999</v>
       </c>
-    </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J277" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="K277" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>40664</v>
       </c>
@@ -7152,8 +9691,14 @@
       <c r="I278">
         <v>202465.938186407</v>
       </c>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J278" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="K278" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>40695</v>
       </c>
@@ -7181,8 +9726,14 @@
       <c r="I279">
         <v>201792.172526738</v>
       </c>
-    </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J279" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="K279" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>40725</v>
       </c>
@@ -7210,8 +9761,14 @@
       <c r="I280">
         <v>204130.98042676199</v>
       </c>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J280" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="K280" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>40756</v>
       </c>
@@ -7239,8 +9796,14 @@
       <c r="I281">
         <v>199956.46206858201</v>
       </c>
-    </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J281" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="K281" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>40787</v>
       </c>
@@ -7268,8 +9831,14 @@
       <c r="I282">
         <v>198988.018144403</v>
       </c>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J282" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="K282" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>40817</v>
       </c>
@@ -7297,8 +9866,14 @@
       <c r="I283">
         <v>182535.788834323</v>
       </c>
-    </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J283" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="K283" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>40848</v>
       </c>
@@ -7326,8 +9901,14 @@
       <c r="I284">
         <v>178466.080101342</v>
       </c>
-    </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J284" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="K284" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>40878</v>
       </c>
@@ -7355,8 +9936,14 @@
       <c r="I285">
         <v>189921.60453739201</v>
       </c>
-    </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J285" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="K285" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>40909</v>
       </c>
@@ -7384,8 +9971,14 @@
       <c r="I286">
         <v>193334.99702988501</v>
       </c>
-    </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J286" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="K286" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>40940</v>
       </c>
@@ -7413,8 +10006,14 @@
       <c r="I287">
         <v>200380.83425007999</v>
       </c>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J287" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="K287" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>40969</v>
       </c>
@@ -7442,8 +10041,14 @@
       <c r="I288">
         <v>206651.39559076601</v>
       </c>
-    </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J288" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="K288" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>41000</v>
       </c>
@@ -7471,8 +10076,14 @@
       <c r="I289">
         <v>212441.113523612</v>
       </c>
-    </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J289" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="K289" s="2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>41030</v>
       </c>
@@ -7500,8 +10111,14 @@
       <c r="I290">
         <v>216573.965629877</v>
       </c>
-    </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J290" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="K290" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>41061</v>
       </c>
@@ -7529,8 +10146,14 @@
       <c r="I291">
         <v>216415.47992410301</v>
       </c>
-    </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J291" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="K291" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>41091</v>
       </c>
@@ -7558,8 +10181,14 @@
       <c r="I292">
         <v>210662.937799318</v>
       </c>
-    </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J292" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="K292" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>41122</v>
       </c>
@@ -7587,8 +10216,14 @@
       <c r="I293">
         <v>218108.91748474399</v>
       </c>
-    </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J293" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="K293" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>41153</v>
       </c>
@@ -7616,8 +10251,14 @@
       <c r="I294">
         <v>226415.845145331</v>
       </c>
-    </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J294" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="K294" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>41183</v>
       </c>
@@ -7645,8 +10286,14 @@
       <c r="I295">
         <v>226136.13784887499</v>
       </c>
-    </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J295">
+        <v>50330.4775582332</v>
+      </c>
+      <c r="K295" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>41214</v>
       </c>
@@ -7674,8 +10321,14 @@
       <c r="I296">
         <v>226616.53837125</v>
       </c>
-    </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J296" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="K296" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>41244</v>
       </c>
@@ -7703,8 +10356,14 @@
       <c r="I297">
         <v>223993.777410879</v>
       </c>
-    </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J297" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="K297" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>41275</v>
       </c>
@@ -7732,8 +10391,14 @@
       <c r="I298">
         <v>226984.28095770901</v>
       </c>
-    </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J298" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="K298" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>41306</v>
       </c>
@@ -7761,8 +10426,14 @@
       <c r="I299">
         <v>227607.36330765</v>
       </c>
-    </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J299" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="K299" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>41334</v>
       </c>
@@ -7790,8 +10461,14 @@
       <c r="I300">
         <v>232917.000152138</v>
       </c>
-    </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J300" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="K300" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>41365</v>
       </c>
@@ -7819,8 +10496,14 @@
       <c r="I301">
         <v>240782.741643035</v>
       </c>
-    </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J301" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="K301" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>41395</v>
       </c>
@@ -7848,8 +10531,14 @@
       <c r="I302">
         <v>252657.82531871999</v>
       </c>
-    </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J302" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="K302" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>41426</v>
       </c>
@@ -7877,8 +10566,14 @@
       <c r="I303">
         <v>255291.10076650299</v>
       </c>
-    </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J303" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="K303" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>41456</v>
       </c>
@@ -7906,8 +10601,14 @@
       <c r="I304">
         <v>256683.50795584399</v>
       </c>
-    </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J304" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="K304" s="2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>41487</v>
       </c>
@@ -7935,8 +10636,14 @@
       <c r="I305">
         <v>248942.30855304701</v>
       </c>
-    </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J305" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="K305" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>41518</v>
       </c>
@@ -7964,8 +10671,14 @@
       <c r="I306">
         <v>258198.79338420401</v>
       </c>
-    </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J306" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="K306" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>41548</v>
       </c>
@@ -7993,8 +10706,14 @@
       <c r="I307">
         <v>253466.796924856</v>
       </c>
-    </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J307" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="K307" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>41579</v>
       </c>
@@ -8022,8 +10741,14 @@
       <c r="I308">
         <v>260822.442847389</v>
       </c>
-    </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J308" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="K308" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>41609</v>
       </c>
@@ -8051,8 +10776,14 @@
       <c r="I309">
         <v>268329.77131514298</v>
       </c>
-    </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J309" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="K309" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>41640</v>
       </c>
@@ -8080,8 +10811,14 @@
       <c r="I310">
         <v>273700.34603190399</v>
       </c>
-    </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J310" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="K310" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>41671</v>
       </c>
@@ -8109,8 +10846,14 @@
       <c r="I311">
         <v>275843.82859162701</v>
       </c>
-    </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J311" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="K311" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>41699</v>
       </c>
@@ -8138,8 +10881,14 @@
       <c r="I312">
         <v>271031.537984772</v>
       </c>
-    </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J312">
+        <v>64881.322315863501</v>
+      </c>
+      <c r="K312" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="313" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>41730</v>
       </c>
@@ -8167,8 +10916,14 @@
       <c r="I313">
         <v>278480.34527005401</v>
       </c>
-    </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J313" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="K313" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="314" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>41760</v>
       </c>
@@ -8196,8 +10951,14 @@
       <c r="I314">
         <v>279389.03428945498</v>
       </c>
-    </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J314" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="K314" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="315" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>41791</v>
       </c>
@@ -8225,8 +10986,14 @@
       <c r="I315">
         <v>280988.38612698897</v>
       </c>
-    </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J315">
+        <v>68927.007625277402</v>
+      </c>
+      <c r="K315" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="316" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>41821</v>
       </c>
@@ -8254,8 +11021,14 @@
       <c r="I316">
         <v>291633.55147304002</v>
       </c>
-    </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J316" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="K316" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="317" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>41852</v>
       </c>
@@ -8283,8 +11056,14 @@
       <c r="I317">
         <v>295742.14021667599</v>
       </c>
-    </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J317" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="K317" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="318" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>41883</v>
       </c>
@@ -8312,8 +11091,14 @@
       <c r="I318">
         <v>297091.18862360797</v>
       </c>
-    </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J318" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="K318" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="319" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>41913</v>
       </c>
@@ -8341,8 +11126,14 @@
       <c r="I319">
         <v>308035.17527942703</v>
       </c>
-    </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J319" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="K319" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="320" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>41944</v>
       </c>
@@ -8370,8 +11161,14 @@
       <c r="I320">
         <v>314083.36552184197</v>
       </c>
-    </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J320">
+        <v>80229.649094645705</v>
+      </c>
+      <c r="K320" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="321" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>41974</v>
       </c>
@@ -8399,8 +11196,14 @@
       <c r="I321">
         <v>317604.37422092701</v>
       </c>
-    </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J321" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="K321" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="322" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>42005</v>
       </c>
@@ -8428,8 +11231,14 @@
       <c r="I322">
         <v>325033.47795628197</v>
       </c>
-    </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J322" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="K322">
+        <v>27461.7234712953</v>
+      </c>
+    </row>
+    <row r="323" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>42036</v>
       </c>
@@ -8457,8 +11266,14 @@
       <c r="I323">
         <v>328800.51832220098</v>
       </c>
-    </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J323">
+        <v>91164.191691949803</v>
+      </c>
+      <c r="K323" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="324" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>42064</v>
       </c>
@@ -8486,8 +11301,14 @@
       <c r="I324">
         <v>346716.84384866798</v>
       </c>
-    </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J324" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="K324" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="325" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>42095</v>
       </c>
@@ -8515,8 +11336,14 @@
       <c r="I325">
         <v>369153.020718096</v>
       </c>
-    </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J325" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="K325" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="326" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>42125</v>
       </c>
@@ -8544,8 +11371,14 @@
       <c r="I326">
         <v>379619.79077753302</v>
       </c>
-    </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J326" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="K326">
+        <v>30853.782841508</v>
+      </c>
+    </row>
+    <row r="327" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>42156</v>
       </c>
@@ -8573,8 +11406,14 @@
       <c r="I327">
         <v>372725.55846323998</v>
       </c>
-    </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J327" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="K327" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="328" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>42186</v>
       </c>
@@ -8602,8 +11441,14 @@
       <c r="I328">
         <v>382362.51981621201</v>
       </c>
-    </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J328">
+        <v>94143.5082104709</v>
+      </c>
+      <c r="K328" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="329" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>42217</v>
       </c>
@@ -8631,8 +11476,14 @@
       <c r="I329">
         <v>366161.82196234399</v>
       </c>
-    </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J329" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="K329" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="330" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>42248</v>
       </c>
@@ -8660,8 +11511,14 @@
       <c r="I330">
         <v>380279.52341622103</v>
       </c>
-    </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J330" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="K330" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="331" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>42278</v>
       </c>
@@ -8689,8 +11546,14 @@
       <c r="I331">
         <v>347261.96288989199</v>
       </c>
-    </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J331" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="K331" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="332" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>42309</v>
       </c>
@@ -8718,8 +11581,14 @@
       <c r="I332">
         <v>334811.61987012898</v>
       </c>
-    </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J332" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="K332" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="333" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>42339</v>
       </c>
@@ -8747,8 +11616,14 @@
       <c r="I333">
         <v>367444.09193572099</v>
       </c>
-    </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J333">
+        <v>93029.047340099598</v>
+      </c>
+      <c r="K333" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="334" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>42370</v>
       </c>
@@ -8776,8 +11651,14 @@
       <c r="I334">
         <v>380753.302831156</v>
       </c>
-    </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J334" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="K334" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="335" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>42401</v>
       </c>
@@ -8805,8 +11686,14 @@
       <c r="I335">
         <v>363478.26430246898</v>
       </c>
-    </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J335" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="K335" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="336" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>42430</v>
       </c>
@@ -8834,8 +11721,14 @@
       <c r="I336">
         <v>340700.71174003102</v>
       </c>
-    </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J336" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="K336" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="337" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>42461</v>
       </c>
@@ -8863,8 +11756,14 @@
       <c r="I337">
         <v>339158.94570260099</v>
       </c>
-    </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J337" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="K337" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="338" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>42491</v>
       </c>
@@ -8892,8 +11791,14 @@
       <c r="I338">
         <v>346363.58596662502</v>
       </c>
-    </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J338" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="K338" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="339" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>42522</v>
       </c>
@@ -8921,8 +11826,14 @@
       <c r="I339">
         <v>351288.92036680097</v>
       </c>
-    </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J339" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="K339" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="340" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>42552</v>
       </c>
@@ -8950,8 +11861,14 @@
       <c r="I340">
         <v>361148.078667928</v>
       </c>
-    </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J340" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="K340" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="341" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>42583</v>
       </c>
@@ -8979,8 +11896,14 @@
       <c r="I341">
         <v>358773.91764872702</v>
       </c>
-    </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J341" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="K341" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="342" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>42614</v>
       </c>
@@ -9008,8 +11931,14 @@
       <c r="I342">
         <v>373561.41437014902</v>
       </c>
-    </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J342">
+        <v>97855.986106933895</v>
+      </c>
+      <c r="K342" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="343" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>42644</v>
       </c>
@@ -9037,8 +11966,14 @@
       <c r="I343">
         <v>373233.75538251898</v>
       </c>
-    </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J343" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="K343" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="344" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>42675</v>
       </c>
@@ -9066,8 +12001,14 @@
       <c r="I344">
         <v>374241.42262952903</v>
       </c>
-    </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J344" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="K344" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="345" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>42705</v>
       </c>
@@ -9095,8 +12036,14 @@
       <c r="I345">
         <v>374207.28087554901</v>
       </c>
-    </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J345" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="K345" s="2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="346" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>42736</v>
       </c>
@@ -9124,8 +12071,14 @@
       <c r="I346">
         <v>390688.36822607502</v>
       </c>
-    </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J346" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="K346" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="347" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>42767</v>
       </c>
@@ -9153,8 +12106,14 @@
       <c r="I347">
         <v>403604.24512705702</v>
       </c>
-    </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J347" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="K347" s="2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="348" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>42795</v>
       </c>
@@ -9182,8 +12141,14 @@
       <c r="I348">
         <v>405120.649553761</v>
       </c>
-    </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J348" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="K348" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="349" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>42826</v>
       </c>
@@ -9211,8 +12176,14 @@
       <c r="I349">
         <v>422568.00582652498</v>
       </c>
-    </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J349" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="K349" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="350" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>42856</v>
       </c>
@@ -9240,8 +12211,14 @@
       <c r="I350">
         <v>423314.195881942</v>
       </c>
-    </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J350" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="K350" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="351" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>42887</v>
       </c>
@@ -9269,8 +12246,14 @@
       <c r="I351">
         <v>420188.69421122601</v>
       </c>
-    </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J351" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="K351">
+        <v>37811.970724205901</v>
+      </c>
+    </row>
+    <row r="352" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>42917</v>
       </c>
@@ -9298,8 +12281,14 @@
       <c r="I352">
         <v>417950.07852489298</v>
       </c>
-    </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J352" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="K352">
+        <v>38326.9386130087</v>
+      </c>
+    </row>
+    <row r="353" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>42948</v>
       </c>
@@ -9327,8 +12316,14 @@
       <c r="I353">
         <v>412536.08641621203</v>
       </c>
-    </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J353" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="K353" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="354" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>42979</v>
       </c>
@@ -9356,8 +12351,14 @@
       <c r="I354">
         <v>411062.71279595199</v>
       </c>
-    </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J354" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="K354" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="355" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>43009</v>
       </c>
@@ -9385,8 +12386,14 @@
       <c r="I355">
         <v>408230.04971971601</v>
       </c>
-    </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J355" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="K355" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="356" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>43040</v>
       </c>
@@ -9414,8 +12421,14 @@
       <c r="I356">
         <v>418064.20015282399</v>
       </c>
-    </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J356" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="K356" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="357" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>43070</v>
       </c>
@@ -9443,8 +12456,14 @@
       <c r="I357">
         <v>432113.98415183602</v>
       </c>
-    </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J357" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="K357" s="2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="358" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>43101</v>
       </c>
@@ -9472,8 +12491,14 @@
       <c r="I358">
         <v>433615.275116337</v>
       </c>
-    </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J358" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="K358" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="359" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>43132</v>
       </c>
@@ -9501,8 +12526,14 @@
       <c r="I359">
         <v>434202.477741279</v>
       </c>
-    </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J359" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="K359" s="2" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="360" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>43160</v>
       </c>
@@ -9530,8 +12561,14 @@
       <c r="I360">
         <v>440101.217896524</v>
       </c>
-    </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J360" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="K360" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="361" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>43191</v>
       </c>
@@ -9559,8 +12596,14 @@
       <c r="I361">
         <v>430262.14648333099</v>
       </c>
-    </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J361" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="K361" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="362" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>43221</v>
       </c>
@@ -9588,8 +12631,14 @@
       <c r="I362">
         <v>417228.86445936601</v>
       </c>
-    </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J362" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="K362" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="363" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>43252</v>
       </c>
@@ -9617,8 +12666,14 @@
       <c r="I363">
         <v>430478.40486289299</v>
       </c>
-    </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J363" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="K363">
+        <v>46492.478946570598</v>
+      </c>
+    </row>
+    <row r="364" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>43282</v>
       </c>
@@ -9646,8 +12701,14 @@
       <c r="I364">
         <v>447246.16462487599</v>
       </c>
-    </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J364" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="K364" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="365" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>43313</v>
       </c>
@@ -9675,8 +12736,14 @@
       <c r="I365">
         <v>448604.95825159398</v>
       </c>
-    </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J365" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="K365" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="366" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>43344</v>
       </c>
@@ -9704,8 +12771,14 @@
       <c r="I366">
         <v>459541.82547272998</v>
       </c>
-    </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J366" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="K366" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="367" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>43374</v>
       </c>
@@ -9733,8 +12806,14 @@
       <c r="I367">
         <v>468621.76213483402</v>
       </c>
-    </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J367" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="K367" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="368" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>43405</v>
       </c>
@@ -9762,8 +12841,14 @@
       <c r="I368">
         <v>474284.18048449198</v>
       </c>
-    </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J368" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="K368" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="369" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>43435</v>
       </c>
@@ -9791,8 +12876,14 @@
       <c r="I369">
         <v>449476.23442627297</v>
       </c>
-    </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J369" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="K369" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="370" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>43466</v>
       </c>
@@ -9820,8 +12911,14 @@
       <c r="I370">
         <v>452941.40685934399</v>
       </c>
-    </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J370" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="K370" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="371" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>43497</v>
       </c>
@@ -9849,8 +12946,14 @@
       <c r="I371">
         <v>415174.55792518402</v>
       </c>
-    </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J371" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="K371">
+        <v>48112.199535029999</v>
+      </c>
+    </row>
+    <row r="372" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>43525</v>
       </c>
@@ -9878,8 +12981,14 @@
       <c r="I372">
         <v>445997.42017745698</v>
       </c>
-    </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J372" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="K372" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="373" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>43556</v>
       </c>
@@ -9907,8 +13016,14 @@
       <c r="I373">
         <v>462305.95949396503</v>
       </c>
-    </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J373" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="K373" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="374" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>43586</v>
       </c>
@@ -9936,8 +13051,14 @@
       <c r="I374">
         <v>475923.84341712698</v>
       </c>
-    </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J374" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="K374" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="375" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>43617</v>
       </c>
@@ -9965,8 +13086,14 @@
       <c r="I375">
         <v>493546.57369094802</v>
       </c>
-    </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J375" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="K375" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="376" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>43647</v>
       </c>
@@ -9994,8 +13121,14 @@
       <c r="I376">
         <v>467862.81652616902</v>
       </c>
-    </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J376" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="K376" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="377" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>43678</v>
       </c>
@@ -10023,8 +13156,14 @@
       <c r="I377">
         <v>488657.371235998</v>
       </c>
-    </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J377" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="K377" s="2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="378" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>43709</v>
       </c>
@@ -10052,8 +13191,14 @@
       <c r="I378">
         <v>501162.76623742899</v>
       </c>
-    </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J378" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="K378">
+        <v>55306.5051140039</v>
+      </c>
+    </row>
+    <row r="379" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>43739</v>
       </c>
@@ -10081,8 +13226,14 @@
       <c r="I379">
         <v>496027.21878679201</v>
       </c>
-    </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J379" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="K379" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="380" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>43770</v>
       </c>
@@ -10110,8 +13261,14 @@
       <c r="I380">
         <v>513422.00612305599</v>
       </c>
-    </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J380" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="K380" s="2" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="381" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>43800</v>
       </c>
@@ -10139,8 +13296,14 @@
       <c r="I381">
         <v>513978.82298621797</v>
       </c>
-    </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J381" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="K381" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="382" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>43831</v>
       </c>
@@ -10168,8 +13331,14 @@
       <c r="I382">
         <v>536567.39407318097</v>
       </c>
-    </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J382" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="K382">
+        <v>63359.019572978897</v>
+      </c>
+    </row>
+    <row r="383" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>43862</v>
       </c>
@@ -10197,8 +13366,14 @@
       <c r="I383">
         <v>540245.17762471503</v>
       </c>
-    </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J383" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="K383" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="384" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>43891</v>
       </c>
@@ -10226,8 +13401,14 @@
       <c r="I384">
         <v>545799.26451731997</v>
       </c>
-    </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J384" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="K384" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="385" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>43922</v>
       </c>
@@ -10255,8 +13436,14 @@
       <c r="I385">
         <v>503079.38217880198</v>
       </c>
-    </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J385" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="K385" s="2" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="386" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>43952</v>
       </c>
@@ -10284,8 +13471,14 @@
       <c r="I386">
         <v>437337.16734981001</v>
       </c>
-    </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J386" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="K386" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="387" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>43983</v>
       </c>
@@ -10313,8 +13506,14 @@
       <c r="I387">
         <v>488682.04136553098</v>
       </c>
-    </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J387" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="K387" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="388" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>44013</v>
       </c>
@@ -10342,8 +13541,14 @@
       <c r="I388">
         <v>500328.62943239399</v>
       </c>
-    </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J388">
+        <v>150088.26777396401</v>
+      </c>
+      <c r="K388">
+        <v>71932.013383255005</v>
+      </c>
+    </row>
+    <row r="389" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>44044</v>
       </c>
@@ -10371,8 +13576,14 @@
       <c r="I389">
         <v>510719.38560889999</v>
       </c>
-    </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J389" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="K389" s="2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="390" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>44075</v>
       </c>
@@ -10400,8 +13611,14 @@
       <c r="I390">
         <v>505793.58179705101</v>
       </c>
-    </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J390" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="K390" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="391" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>44105</v>
       </c>
@@ -10429,8 +13646,14 @@
       <c r="I391">
         <v>535430.19462607498</v>
       </c>
-    </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J391" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="K391" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="392" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>44136</v>
       </c>
@@ -10458,8 +13681,14 @@
       <c r="I392">
         <v>527202.11079531396</v>
       </c>
-    </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J392" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="K392" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="393" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>44166</v>
       </c>
@@ -10487,8 +13716,14 @@
       <c r="I393">
         <v>511467.02193003398</v>
       </c>
-    </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J393" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="K393" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="394" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>44197</v>
       </c>
@@ -10516,8 +13751,14 @@
       <c r="I394">
         <v>563285.07124663098</v>
       </c>
-    </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J394" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="K394" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="395" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>44228</v>
       </c>
@@ -10545,8 +13786,14 @@
       <c r="I395">
         <v>573242.167096533</v>
       </c>
-    </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J395" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="K395" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="396" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>44256</v>
       </c>
@@ -10574,8 +13821,14 @@
       <c r="I396">
         <v>573858.26913928904</v>
       </c>
-    </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J396" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="K396" s="2" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="397" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>44287</v>
       </c>
@@ -10603,8 +13856,14 @@
       <c r="I397">
         <v>589291.354326164</v>
       </c>
-    </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J397" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="K397">
+        <v>89998.125885784306</v>
+      </c>
+    </row>
+    <row r="398" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>44317</v>
       </c>
@@ -10632,8 +13891,14 @@
       <c r="I398">
         <v>629463.21805450204</v>
       </c>
-    </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J398" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="K398" s="2" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="399" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>44348</v>
       </c>
@@ -10661,8 +13926,14 @@
       <c r="I399">
         <v>639293.471525245</v>
       </c>
-    </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J399" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="K399" s="2" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="400" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>44378</v>
       </c>
@@ -10690,8 +13961,14 @@
       <c r="I400">
         <v>642177.75027449604</v>
       </c>
-    </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J400" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="K400" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="401" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>44409</v>
       </c>
@@ -10719,8 +13996,14 @@
       <c r="I401">
         <v>669134.37495998701</v>
       </c>
-    </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J401" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="K401" s="2" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="402" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>44440</v>
       </c>
@@ -10748,8 +14031,14 @@
       <c r="I402">
         <v>680719.54834391398</v>
       </c>
-    </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J402" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="K402">
+        <v>99740.003119598696</v>
+      </c>
+    </row>
+    <row r="403" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>44470</v>
       </c>
@@ -10777,8 +14066,14 @@
       <c r="I403">
         <v>701021.90542397695</v>
       </c>
-    </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J403" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="K403" s="2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="404" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>44501</v>
       </c>
@@ -10806,8 +14101,14 @@
       <c r="I404">
         <v>686712.41589204897</v>
       </c>
-    </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J404" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K404" s="2" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="405" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>44531</v>
       </c>
@@ -10835,8 +14136,14 @@
       <c r="I405">
         <v>721495.68236449303</v>
       </c>
-    </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J405" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="K405" s="2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="406" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>44562</v>
       </c>
@@ -10864,8 +14171,14 @@
       <c r="I406">
         <v>723198.84483857302</v>
       </c>
-    </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J406" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="K406" s="2" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="407" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>44593</v>
       </c>
@@ -10893,8 +14206,14 @@
       <c r="I407">
         <v>756571.98014499503</v>
       </c>
-    </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J407" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="K407" s="2" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="408" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>44621</v>
       </c>
@@ -10922,8 +14241,14 @@
       <c r="I408">
         <v>727460.08487497398</v>
       </c>
-    </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J408" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="K408" s="2" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="409" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>44652</v>
       </c>
@@ -10951,8 +14276,14 @@
       <c r="I409">
         <v>706339.16135725705</v>
       </c>
-    </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J409" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K409" s="2" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="410" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>44682</v>
       </c>
@@ -10980,8 +14311,14 @@
       <c r="I410">
         <v>732130.24648833601</v>
       </c>
-    </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J410" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="K410" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="411" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>44713</v>
       </c>
@@ -11009,8 +14346,14 @@
       <c r="I411">
         <v>707040.68445882096</v>
       </c>
-    </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J411" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="K411" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="412" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>44743</v>
       </c>
@@ -11038,8 +14381,14 @@
       <c r="I412">
         <v>696149.82775580406</v>
       </c>
-    </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J412" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="K412" s="2" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="413" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>44774</v>
       </c>
@@ -11067,8 +14416,14 @@
       <c r="I413">
         <v>655804.293223446</v>
       </c>
-    </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J413" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="K413">
+        <v>96970.549265604393</v>
+      </c>
+    </row>
+    <row r="414" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>44805</v>
       </c>
@@ -11096,8 +14451,14 @@
       <c r="I414">
         <v>720991.758675811</v>
       </c>
-    </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J414" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="K414" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="415" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>44835</v>
       </c>
@@ -11125,8 +14486,14 @@
       <c r="I415">
         <v>704527.44378049101</v>
       </c>
-    </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J415" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="K415" s="2" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="416" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>44866</v>
       </c>
@@ -11154,8 +14521,14 @@
       <c r="I416">
         <v>655554.67888032901</v>
       </c>
-    </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J416" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="K416" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="417" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>44896</v>
       </c>
@@ -11183,8 +14556,14 @@
       <c r="I417">
         <v>690867.06824058504</v>
       </c>
-    </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J417" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="K417" s="2" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="418" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>44927</v>
       </c>
@@ -11212,8 +14591,14 @@
       <c r="I418">
         <v>706003.09168602503</v>
       </c>
-    </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J418" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="K418" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="419" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>44958</v>
       </c>
@@ -11241,8 +14626,14 @@
       <c r="I419">
         <v>657640.56002798595</v>
       </c>
-    </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J419" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="K419" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="420" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>44986</v>
       </c>
@@ -11270,8 +14661,14 @@
       <c r="I420">
         <v>693317.20732113498</v>
       </c>
-    </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J420" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="K420" s="2" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="421" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>45017</v>
       </c>
@@ -11299,8 +14696,14 @@
       <c r="I421">
         <v>690287.14151678199</v>
       </c>
-    </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J421" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="K421" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="422" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>45047</v>
       </c>
@@ -11328,8 +14731,14 @@
       <c r="I422">
         <v>694865.18912464299</v>
       </c>
-    </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J422" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="K422" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="423" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>45078</v>
       </c>
@@ -11357,8 +14766,14 @@
       <c r="I423">
         <v>700220.67306536494</v>
       </c>
-    </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J423" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="K423" s="2" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="424" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>45108</v>
       </c>
@@ -11386,8 +14801,14 @@
       <c r="I424">
         <v>712567.59615568595</v>
       </c>
-    </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J424" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="K424" s="2" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="425" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>45139</v>
       </c>
@@ -11415,8 +14836,14 @@
       <c r="I425">
         <v>742935.59889518702</v>
       </c>
-    </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J425" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="K425" s="2" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="426" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>45170</v>
       </c>
@@ -11444,8 +14871,14 @@
       <c r="I426">
         <v>756955.833830063</v>
       </c>
-    </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J426" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="K426" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="427" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>45200</v>
       </c>
@@ -11473,8 +14906,14 @@
       <c r="I427">
         <v>749413.27118771896</v>
       </c>
-    </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J427" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="K427" s="2" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="428" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>45231</v>
       </c>
@@ -11502,8 +14941,14 @@
       <c r="I428">
         <v>735631.23690861103</v>
       </c>
-    </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J428" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="K428" s="2" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="429" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>45261</v>
       </c>
@@ -11531,8 +14976,14 @@
       <c r="I429">
         <v>712604.67942193605</v>
       </c>
-    </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J429" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="K429" s="2" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="430" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>45292</v>
       </c>
@@ -11560,8 +15011,14 @@
       <c r="I430">
         <v>757166.34279306605</v>
       </c>
-    </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J430" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="K430" s="2" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="431" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>45323</v>
       </c>
@@ -11589,8 +15046,14 @@
       <c r="I431">
         <v>785784.43423331296</v>
       </c>
-    </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J431" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="K431" s="2" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="432" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>45352</v>
       </c>
@@ -11618,8 +15081,14 @@
       <c r="I432">
         <v>810844.04421093699</v>
       </c>
-    </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J432" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="K432" s="2" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="433" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>45383</v>
       </c>
@@ -11647,8 +15116,14 @@
       <c r="I433">
         <v>846080.72672403697</v>
       </c>
-    </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J433" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="K433" s="2" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="434" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>45413</v>
       </c>
@@ -11676,8 +15151,14 @@
       <c r="I434">
         <v>874481.039452572</v>
       </c>
-    </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J434" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="K434" s="2" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="435" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>45444</v>
       </c>
@@ -11705,8 +15186,14 @@
       <c r="I435">
         <v>849304.68313962396</v>
       </c>
-    </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J435" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="K435" s="2" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="436" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>45474</v>
       </c>
@@ -11734,8 +15221,14 @@
       <c r="I436">
         <v>876272.441808259</v>
       </c>
-    </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J436" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="K436" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="437" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>45505</v>
       </c>
@@ -11763,8 +15256,14 @@
       <c r="I437">
         <v>906380.42763705296</v>
       </c>
-    </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J437" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="K437" s="2" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="438" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>45536</v>
       </c>
@@ -11792,8 +15291,14 @@
       <c r="I438">
         <v>911875.64861153602</v>
       </c>
-    </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J438" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="K438" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="439" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>45566</v>
       </c>
@@ -11821,8 +15326,14 @@
       <c r="I439">
         <v>914111.88512035599</v>
       </c>
-    </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J439" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="K439" s="2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="440" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>45597</v>
       </c>
@@ -11850,8 +15361,14 @@
       <c r="I440">
         <v>921790.43285409897</v>
       </c>
-    </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J440">
+        <v>331895.24242955999</v>
+      </c>
+      <c r="K440" s="2" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="441" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>45627</v>
       </c>
@@ -11879,8 +15396,14 @@
       <c r="I441">
         <v>929575.63089224405</v>
       </c>
-    </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J441" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="K441" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="442" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>45658</v>
       </c>
@@ -11908,8 +15431,14 @@
       <c r="I442">
         <v>1001686.6318807499</v>
       </c>
-    </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J442" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="K442" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="443" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>45689</v>
       </c>
@@ -11937,8 +15466,14 @@
       <c r="I443">
         <v>991827.67611062597</v>
       </c>
-    </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J443">
+        <v>333427.48945809097</v>
+      </c>
+      <c r="K443" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="444" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>45717</v>
       </c>
@@ -11966,8 +15501,14 @@
       <c r="I444">
         <v>1026432.72314711</v>
       </c>
-    </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J444" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="K444">
+        <v>142963.67985542401</v>
+      </c>
+    </row>
+    <row r="445" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>45748</v>
       </c>
@@ -11995,8 +15536,14 @@
       <c r="I445">
         <v>1017283.41723512</v>
       </c>
-    </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J445" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="K445" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="446" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>45778</v>
       </c>
@@ -12024,6 +15571,19 @@
       <c r="I446">
         <v>935684.07962379395</v>
       </c>
+      <c r="J446" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="K446">
+        <v>151070.536301844</v>
+      </c>
+    </row>
+    <row r="447" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J447" s="2"/>
+      <c r="K447" s="2"/>
+    </row>
+    <row r="448" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K448" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
